--- a/meta/procedure_GSheetsOnly.xlsx
+++ b/meta/procedure_GSheetsOnly.xlsx
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="50">
   <si>
     <t>Part</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Students investigate 3 different dyeing technologies in a “Student Expert” activity. Students each read a textual narrative centred on one of the following dyeing technologies: Tyrian purple (extracted from sea snails); Tānekaha Red—a Māori traditional dye extracted from tree bark; and Mauveine (the first synthetic dye, created from coal tar). Students fill out concept maps of the inputs and outputs of each process and begin considering the pros and cons of each process.</t>
+  </si>
+  <si>
+    <t>Disregard this Procedure. Not done!</t>
   </si>
   <si>
     <t>The Price of Colour: Unpacking the costs associated with different dyeing technologies</t>
@@ -708,7 +711,7 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1198,7 +1201,9 @@
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="G2" s="12"/>
     </row>
     <row r="3" ht="171.0" customHeight="1">
@@ -1206,10 +1211,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="14"/>
@@ -1221,10 +1226,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="14"/>
@@ -10243,54 +10248,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L1" s="20"/>
       <c r="M1" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P1" s="24"/>
       <c r="Q1" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R1" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S1" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
@@ -10320,29 +10325,29 @@
         <v>15.0</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="28">
         <f t="array" ref="E2:E1000">ref!C2:C1000</f>
         <v>1</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(FILTER(A2:A99,A2:A99&lt;&gt;""""))"),1.0)</f>
@@ -10388,22 +10393,22 @@
         <v>2.0</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M3" s="21">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -10413,7 +10418,7 @@
         <v>45.0</v>
       </c>
       <c r="O3" s="39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="40">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -10439,33 +10444,33 @@
         <v>10.0</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="28">
         <v>3.0</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M4" s="21"/>
       <c r="N4" s="31"/>
       <c r="O4" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="40"/>
       <c r="R4" s="40"/>
@@ -10484,27 +10489,27 @@
         <v>4.0</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M5" s="21"/>
       <c r="N5" s="31"/>
       <c r="O5" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="40"/>
       <c r="R5" s="40"/>
@@ -10521,33 +10526,33 @@
         <v>15.0</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="28">
         <v>1.0</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M6" s="21"/>
       <c r="N6" s="31"/>
       <c r="O6" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q6" s="40"/>
       <c r="R6" s="40"/>
@@ -10564,13 +10569,13 @@
         <v>30.0</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="28">
         <v>2.0</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="35"/>
@@ -10580,7 +10585,7 @@
       <c r="M7" s="21"/>
       <c r="N7" s="31"/>
       <c r="O7" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="40"/>
       <c r="R7" s="40"/>
@@ -10601,7 +10606,7 @@
       <c r="M8" s="21"/>
       <c r="N8" s="31"/>
       <c r="O8" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="40"/>
       <c r="R8" s="40"/>
@@ -10622,7 +10627,7 @@
       <c r="M9" s="21"/>
       <c r="N9" s="31"/>
       <c r="O9" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="40"/>
       <c r="R9" s="40"/>
@@ -10643,7 +10648,7 @@
       <c r="M10" s="21"/>
       <c r="N10" s="31"/>
       <c r="O10" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="40"/>
       <c r="R10" s="40"/>
@@ -10664,7 +10669,7 @@
       <c r="M11" s="21"/>
       <c r="N11" s="31"/>
       <c r="O11" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="40"/>
       <c r="R11" s="40"/>
@@ -10685,7 +10690,7 @@
       <c r="M12" s="21"/>
       <c r="N12" s="31"/>
       <c r="O12" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="40"/>
       <c r="R12" s="40"/>
@@ -10706,7 +10711,7 @@
       <c r="M13" s="21"/>
       <c r="N13" s="31"/>
       <c r="O13" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="40"/>
       <c r="R13" s="40"/>
@@ -10727,7 +10732,7 @@
       <c r="M14" s="21"/>
       <c r="N14" s="31"/>
       <c r="O14" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="40"/>
       <c r="R14" s="40"/>
@@ -10748,7 +10753,7 @@
       <c r="M15" s="21"/>
       <c r="N15" s="31"/>
       <c r="O15" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="40"/>
       <c r="R15" s="40"/>
@@ -10769,7 +10774,7 @@
       <c r="M16" s="21"/>
       <c r="N16" s="31"/>
       <c r="O16" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="40"/>
       <c r="R16" s="40"/>
@@ -10790,7 +10795,7 @@
       <c r="M17" s="21"/>
       <c r="N17" s="31"/>
       <c r="O17" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="40"/>
       <c r="R17" s="40"/>
@@ -10811,7 +10816,7 @@
       <c r="M18" s="21"/>
       <c r="N18" s="31"/>
       <c r="O18" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q18" s="40"/>
       <c r="R18" s="40"/>
@@ -10832,7 +10837,7 @@
       <c r="M19" s="21"/>
       <c r="N19" s="31"/>
       <c r="O19" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q19" s="40"/>
       <c r="R19" s="40"/>
@@ -10853,7 +10858,7 @@
       <c r="M20" s="21"/>
       <c r="N20" s="31"/>
       <c r="O20" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="40"/>
       <c r="R20" s="40"/>
@@ -10874,7 +10879,7 @@
       <c r="M21" s="21"/>
       <c r="N21" s="31"/>
       <c r="O21" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q21" s="40"/>
       <c r="R21" s="40"/>
@@ -10895,7 +10900,7 @@
       <c r="M22" s="21"/>
       <c r="N22" s="31"/>
       <c r="O22" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q22" s="40"/>
       <c r="R22" s="40"/>
@@ -10916,7 +10921,7 @@
       <c r="M23" s="21"/>
       <c r="N23" s="31"/>
       <c r="O23" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q23" s="40"/>
       <c r="R23" s="40"/>
@@ -10937,7 +10942,7 @@
       <c r="M24" s="21"/>
       <c r="N24" s="31"/>
       <c r="O24" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q24" s="40"/>
       <c r="R24" s="40"/>
@@ -10958,7 +10963,7 @@
       <c r="M25" s="21"/>
       <c r="N25" s="31"/>
       <c r="O25" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q25" s="40"/>
       <c r="R25" s="40"/>
@@ -10979,7 +10984,7 @@
       <c r="M26" s="21"/>
       <c r="N26" s="31"/>
       <c r="O26" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q26" s="40"/>
       <c r="R26" s="40"/>
@@ -11000,7 +11005,7 @@
       <c r="M27" s="21"/>
       <c r="N27" s="31"/>
       <c r="O27" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q27" s="40"/>
       <c r="R27" s="40"/>
@@ -11021,7 +11026,7 @@
       <c r="M28" s="21"/>
       <c r="N28" s="31"/>
       <c r="O28" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q28" s="40"/>
       <c r="R28" s="40"/>
@@ -11042,7 +11047,7 @@
       <c r="M29" s="21"/>
       <c r="N29" s="31"/>
       <c r="O29" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q29" s="40"/>
       <c r="R29" s="40"/>
@@ -11063,7 +11068,7 @@
       <c r="M30" s="21"/>
       <c r="N30" s="31"/>
       <c r="O30" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q30" s="40"/>
       <c r="R30" s="40"/>
@@ -11084,7 +11089,7 @@
       <c r="M31" s="21"/>
       <c r="N31" s="31"/>
       <c r="O31" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q31" s="40"/>
       <c r="R31" s="40"/>
@@ -11105,7 +11110,7 @@
       <c r="M32" s="21"/>
       <c r="N32" s="31"/>
       <c r="O32" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q32" s="40"/>
       <c r="R32" s="40"/>
@@ -11126,7 +11131,7 @@
       <c r="M33" s="21"/>
       <c r="N33" s="31"/>
       <c r="O33" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q33" s="40"/>
       <c r="R33" s="40"/>
@@ -11147,7 +11152,7 @@
       <c r="M34" s="21"/>
       <c r="N34" s="31"/>
       <c r="O34" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q34" s="40"/>
       <c r="R34" s="40"/>
@@ -11168,7 +11173,7 @@
       <c r="M35" s="21"/>
       <c r="N35" s="31"/>
       <c r="O35" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q35" s="40"/>
       <c r="R35" s="40"/>
@@ -11189,7 +11194,7 @@
       <c r="M36" s="21"/>
       <c r="N36" s="31"/>
       <c r="O36" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q36" s="40"/>
       <c r="R36" s="40"/>
@@ -11210,7 +11215,7 @@
       <c r="M37" s="21"/>
       <c r="N37" s="31"/>
       <c r="O37" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q37" s="40"/>
       <c r="R37" s="40"/>
@@ -11231,7 +11236,7 @@
       <c r="M38" s="21"/>
       <c r="N38" s="31"/>
       <c r="O38" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q38" s="40"/>
       <c r="R38" s="40"/>
@@ -11252,7 +11257,7 @@
       <c r="M39" s="21"/>
       <c r="N39" s="31"/>
       <c r="O39" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q39" s="40"/>
       <c r="R39" s="40"/>
@@ -11273,7 +11278,7 @@
       <c r="M40" s="21"/>
       <c r="N40" s="31"/>
       <c r="O40" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q40" s="40"/>
       <c r="R40" s="40"/>
@@ -11294,7 +11299,7 @@
       <c r="M41" s="21"/>
       <c r="N41" s="31"/>
       <c r="O41" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q41" s="40"/>
       <c r="R41" s="40"/>
@@ -11315,7 +11320,7 @@
       <c r="M42" s="21"/>
       <c r="N42" s="31"/>
       <c r="O42" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q42" s="40"/>
       <c r="R42" s="40"/>
@@ -11336,7 +11341,7 @@
       <c r="M43" s="21"/>
       <c r="N43" s="31"/>
       <c r="O43" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q43" s="40"/>
       <c r="R43" s="40"/>
@@ -11357,7 +11362,7 @@
       <c r="M44" s="21"/>
       <c r="N44" s="31"/>
       <c r="O44" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q44" s="40"/>
       <c r="R44" s="40"/>
@@ -11378,7 +11383,7 @@
       <c r="M45" s="21"/>
       <c r="N45" s="31"/>
       <c r="O45" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q45" s="40"/>
       <c r="R45" s="40"/>
@@ -11399,7 +11404,7 @@
       <c r="M46" s="21"/>
       <c r="N46" s="31"/>
       <c r="O46" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q46" s="40"/>
       <c r="R46" s="40"/>
@@ -11420,7 +11425,7 @@
       <c r="M47" s="21"/>
       <c r="N47" s="31"/>
       <c r="O47" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q47" s="40"/>
       <c r="R47" s="40"/>
@@ -11441,7 +11446,7 @@
       <c r="M48" s="21"/>
       <c r="N48" s="31"/>
       <c r="O48" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q48" s="40"/>
       <c r="R48" s="40"/>
@@ -11462,7 +11467,7 @@
       <c r="M49" s="21"/>
       <c r="N49" s="31"/>
       <c r="O49" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q49" s="40"/>
       <c r="R49" s="40"/>
@@ -11483,7 +11488,7 @@
       <c r="M50" s="21"/>
       <c r="N50" s="31"/>
       <c r="O50" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q50" s="40"/>
       <c r="R50" s="40"/>
@@ -11504,7 +11509,7 @@
       <c r="M51" s="21"/>
       <c r="N51" s="31"/>
       <c r="O51" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q51" s="40"/>
       <c r="R51" s="40"/>
@@ -11525,7 +11530,7 @@
       <c r="M52" s="21"/>
       <c r="N52" s="31"/>
       <c r="O52" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q52" s="40"/>
       <c r="R52" s="40"/>
@@ -11546,7 +11551,7 @@
       <c r="M53" s="21"/>
       <c r="N53" s="31"/>
       <c r="O53" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q53" s="40"/>
       <c r="R53" s="40"/>
@@ -11567,7 +11572,7 @@
       <c r="M54" s="21"/>
       <c r="N54" s="31"/>
       <c r="O54" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q54" s="40"/>
       <c r="R54" s="40"/>
@@ -11588,7 +11593,7 @@
       <c r="M55" s="21"/>
       <c r="N55" s="31"/>
       <c r="O55" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q55" s="40"/>
       <c r="R55" s="40"/>
@@ -11609,7 +11614,7 @@
       <c r="M56" s="21"/>
       <c r="N56" s="31"/>
       <c r="O56" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q56" s="40"/>
       <c r="R56" s="40"/>
@@ -11630,7 +11635,7 @@
       <c r="M57" s="21"/>
       <c r="N57" s="31"/>
       <c r="O57" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q57" s="40"/>
       <c r="R57" s="40"/>
@@ -11651,7 +11656,7 @@
       <c r="M58" s="21"/>
       <c r="N58" s="31"/>
       <c r="O58" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q58" s="40"/>
       <c r="R58" s="40"/>
@@ -11672,7 +11677,7 @@
       <c r="M59" s="21"/>
       <c r="N59" s="31"/>
       <c r="O59" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q59" s="40"/>
       <c r="R59" s="40"/>
@@ -11693,7 +11698,7 @@
       <c r="M60" s="21"/>
       <c r="N60" s="31"/>
       <c r="O60" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q60" s="40"/>
       <c r="R60" s="40"/>
@@ -11714,7 +11719,7 @@
       <c r="M61" s="21"/>
       <c r="N61" s="31"/>
       <c r="O61" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q61" s="40"/>
       <c r="R61" s="40"/>
@@ -11735,7 +11740,7 @@
       <c r="M62" s="21"/>
       <c r="N62" s="31"/>
       <c r="O62" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q62" s="40"/>
       <c r="R62" s="40"/>
@@ -11756,7 +11761,7 @@
       <c r="M63" s="21"/>
       <c r="N63" s="31"/>
       <c r="O63" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q63" s="40"/>
       <c r="R63" s="40"/>
@@ -11777,7 +11782,7 @@
       <c r="M64" s="21"/>
       <c r="N64" s="31"/>
       <c r="O64" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q64" s="40"/>
       <c r="R64" s="40"/>
@@ -11798,7 +11803,7 @@
       <c r="M65" s="21"/>
       <c r="N65" s="31"/>
       <c r="O65" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q65" s="40"/>
       <c r="R65" s="40"/>
@@ -11819,7 +11824,7 @@
       <c r="M66" s="21"/>
       <c r="N66" s="31"/>
       <c r="O66" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q66" s="40"/>
       <c r="R66" s="40"/>
@@ -11840,7 +11845,7 @@
       <c r="M67" s="21"/>
       <c r="N67" s="31"/>
       <c r="O67" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q67" s="40"/>
       <c r="R67" s="40"/>
@@ -11861,7 +11866,7 @@
       <c r="M68" s="21"/>
       <c r="N68" s="31"/>
       <c r="O68" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q68" s="40"/>
       <c r="R68" s="40"/>
@@ -11882,7 +11887,7 @@
       <c r="M69" s="21"/>
       <c r="N69" s="31"/>
       <c r="O69" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q69" s="40"/>
       <c r="R69" s="40"/>
@@ -11903,7 +11908,7 @@
       <c r="M70" s="21"/>
       <c r="N70" s="31"/>
       <c r="O70" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q70" s="40"/>
       <c r="R70" s="40"/>
@@ -11924,7 +11929,7 @@
       <c r="M71" s="21"/>
       <c r="N71" s="31"/>
       <c r="O71" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q71" s="40"/>
       <c r="R71" s="40"/>
@@ -11945,7 +11950,7 @@
       <c r="M72" s="21"/>
       <c r="N72" s="31"/>
       <c r="O72" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q72" s="40"/>
       <c r="R72" s="40"/>
@@ -11966,7 +11971,7 @@
       <c r="M73" s="21"/>
       <c r="N73" s="31"/>
       <c r="O73" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q73" s="40"/>
       <c r="R73" s="40"/>
@@ -11987,7 +11992,7 @@
       <c r="M74" s="21"/>
       <c r="N74" s="31"/>
       <c r="O74" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q74" s="40"/>
       <c r="R74" s="40"/>
@@ -12008,7 +12013,7 @@
       <c r="M75" s="21"/>
       <c r="N75" s="31"/>
       <c r="O75" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q75" s="40"/>
       <c r="R75" s="40"/>
@@ -12029,7 +12034,7 @@
       <c r="M76" s="21"/>
       <c r="N76" s="31"/>
       <c r="O76" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q76" s="40"/>
       <c r="R76" s="40"/>
@@ -12050,7 +12055,7 @@
       <c r="M77" s="21"/>
       <c r="N77" s="31"/>
       <c r="O77" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q77" s="40"/>
       <c r="R77" s="40"/>
@@ -12071,7 +12076,7 @@
       <c r="M78" s="21"/>
       <c r="N78" s="31"/>
       <c r="O78" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q78" s="40"/>
       <c r="R78" s="40"/>
@@ -12092,7 +12097,7 @@
       <c r="M79" s="21"/>
       <c r="N79" s="31"/>
       <c r="O79" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q79" s="40"/>
       <c r="R79" s="40"/>
@@ -12113,7 +12118,7 @@
       <c r="M80" s="21"/>
       <c r="N80" s="31"/>
       <c r="O80" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q80" s="40"/>
       <c r="R80" s="40"/>
@@ -12134,7 +12139,7 @@
       <c r="M81" s="21"/>
       <c r="N81" s="31"/>
       <c r="O81" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q81" s="40"/>
       <c r="R81" s="40"/>
@@ -12155,7 +12160,7 @@
       <c r="M82" s="21"/>
       <c r="N82" s="31"/>
       <c r="O82" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q82" s="40"/>
       <c r="R82" s="40"/>
@@ -12176,7 +12181,7 @@
       <c r="M83" s="21"/>
       <c r="N83" s="31"/>
       <c r="O83" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q83" s="40"/>
       <c r="R83" s="40"/>
@@ -12197,7 +12202,7 @@
       <c r="M84" s="21"/>
       <c r="N84" s="31"/>
       <c r="O84" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q84" s="40"/>
       <c r="R84" s="40"/>
@@ -12218,7 +12223,7 @@
       <c r="M85" s="21"/>
       <c r="N85" s="31"/>
       <c r="O85" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q85" s="40"/>
       <c r="R85" s="40"/>
@@ -12239,7 +12244,7 @@
       <c r="M86" s="21"/>
       <c r="N86" s="31"/>
       <c r="O86" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q86" s="40"/>
       <c r="R86" s="40"/>
@@ -12260,7 +12265,7 @@
       <c r="M87" s="21"/>
       <c r="N87" s="31"/>
       <c r="O87" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q87" s="40"/>
       <c r="R87" s="40"/>
@@ -12281,7 +12286,7 @@
       <c r="M88" s="21"/>
       <c r="N88" s="31"/>
       <c r="O88" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q88" s="40"/>
       <c r="R88" s="40"/>
@@ -12302,7 +12307,7 @@
       <c r="M89" s="21"/>
       <c r="N89" s="31"/>
       <c r="O89" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q89" s="40"/>
       <c r="R89" s="40"/>
@@ -12323,7 +12328,7 @@
       <c r="M90" s="21"/>
       <c r="N90" s="31"/>
       <c r="O90" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q90" s="40"/>
       <c r="R90" s="40"/>
@@ -12344,7 +12349,7 @@
       <c r="M91" s="21"/>
       <c r="N91" s="31"/>
       <c r="O91" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q91" s="40"/>
       <c r="R91" s="40"/>
@@ -12365,7 +12370,7 @@
       <c r="M92" s="21"/>
       <c r="N92" s="31"/>
       <c r="O92" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q92" s="40"/>
       <c r="R92" s="40"/>
@@ -12386,7 +12391,7 @@
       <c r="M93" s="21"/>
       <c r="N93" s="31"/>
       <c r="O93" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q93" s="40"/>
       <c r="R93" s="40"/>
@@ -12407,7 +12412,7 @@
       <c r="M94" s="21"/>
       <c r="N94" s="31"/>
       <c r="O94" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q94" s="40"/>
       <c r="R94" s="40"/>
@@ -12428,7 +12433,7 @@
       <c r="M95" s="21"/>
       <c r="N95" s="31"/>
       <c r="O95" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q95" s="40"/>
       <c r="R95" s="40"/>
@@ -12449,7 +12454,7 @@
       <c r="M96" s="21"/>
       <c r="N96" s="31"/>
       <c r="O96" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q96" s="40"/>
       <c r="R96" s="40"/>
@@ -12470,7 +12475,7 @@
       <c r="M97" s="21"/>
       <c r="N97" s="31"/>
       <c r="O97" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q97" s="40"/>
       <c r="R97" s="40"/>
@@ -12491,7 +12496,7 @@
       <c r="M98" s="21"/>
       <c r="N98" s="31"/>
       <c r="O98" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q98" s="40"/>
       <c r="R98" s="40"/>
@@ -12512,7 +12517,7 @@
       <c r="M99" s="21"/>
       <c r="N99" s="31"/>
       <c r="O99" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q99" s="40"/>
       <c r="R99" s="40"/>
@@ -12533,7 +12538,7 @@
       <c r="M100" s="21"/>
       <c r="N100" s="31"/>
       <c r="O100" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q100" s="40"/>
       <c r="R100" s="40"/>
@@ -12554,7 +12559,7 @@
       <c r="M101" s="21"/>
       <c r="N101" s="31"/>
       <c r="O101" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q101" s="40"/>
       <c r="R101" s="40"/>
@@ -12575,7 +12580,7 @@
       <c r="M102" s="21"/>
       <c r="N102" s="31"/>
       <c r="O102" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q102" s="40"/>
       <c r="R102" s="40"/>
@@ -12596,7 +12601,7 @@
       <c r="M103" s="21"/>
       <c r="N103" s="31"/>
       <c r="O103" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q103" s="40"/>
       <c r="R103" s="40"/>
@@ -12617,7 +12622,7 @@
       <c r="M104" s="21"/>
       <c r="N104" s="31"/>
       <c r="O104" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q104" s="40"/>
       <c r="R104" s="40"/>
@@ -12638,7 +12643,7 @@
       <c r="M105" s="21"/>
       <c r="N105" s="31"/>
       <c r="O105" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q105" s="40"/>
       <c r="R105" s="40"/>
@@ -12659,7 +12664,7 @@
       <c r="M106" s="21"/>
       <c r="N106" s="31"/>
       <c r="O106" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q106" s="40"/>
       <c r="R106" s="40"/>
@@ -12680,7 +12685,7 @@
       <c r="M107" s="21"/>
       <c r="N107" s="31"/>
       <c r="O107" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q107" s="40"/>
       <c r="R107" s="40"/>
@@ -12701,7 +12706,7 @@
       <c r="M108" s="21"/>
       <c r="N108" s="31"/>
       <c r="O108" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q108" s="40"/>
       <c r="R108" s="40"/>
@@ -12722,7 +12727,7 @@
       <c r="M109" s="21"/>
       <c r="N109" s="31"/>
       <c r="O109" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q109" s="40"/>
       <c r="R109" s="40"/>
@@ -12743,7 +12748,7 @@
       <c r="M110" s="21"/>
       <c r="N110" s="31"/>
       <c r="O110" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q110" s="40"/>
       <c r="R110" s="40"/>
@@ -12764,7 +12769,7 @@
       <c r="M111" s="21"/>
       <c r="N111" s="31"/>
       <c r="O111" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q111" s="40"/>
       <c r="R111" s="40"/>
@@ -12785,7 +12790,7 @@
       <c r="M112" s="21"/>
       <c r="N112" s="31"/>
       <c r="O112" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q112" s="40"/>
       <c r="R112" s="40"/>
@@ -12806,7 +12811,7 @@
       <c r="M113" s="21"/>
       <c r="N113" s="31"/>
       <c r="O113" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q113" s="40"/>
       <c r="R113" s="40"/>
@@ -12827,7 +12832,7 @@
       <c r="M114" s="21"/>
       <c r="N114" s="31"/>
       <c r="O114" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q114" s="40"/>
       <c r="R114" s="40"/>
@@ -12848,7 +12853,7 @@
       <c r="M115" s="21"/>
       <c r="N115" s="31"/>
       <c r="O115" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q115" s="40"/>
       <c r="R115" s="40"/>
@@ -12869,7 +12874,7 @@
       <c r="M116" s="21"/>
       <c r="N116" s="31"/>
       <c r="O116" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q116" s="40"/>
       <c r="R116" s="40"/>
@@ -12890,7 +12895,7 @@
       <c r="M117" s="21"/>
       <c r="N117" s="31"/>
       <c r="O117" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q117" s="40"/>
       <c r="R117" s="40"/>
@@ -12911,7 +12916,7 @@
       <c r="M118" s="21"/>
       <c r="N118" s="31"/>
       <c r="O118" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q118" s="40"/>
       <c r="R118" s="40"/>
@@ -12932,7 +12937,7 @@
       <c r="M119" s="21"/>
       <c r="N119" s="31"/>
       <c r="O119" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q119" s="40"/>
       <c r="R119" s="40"/>
@@ -12953,7 +12958,7 @@
       <c r="M120" s="21"/>
       <c r="N120" s="31"/>
       <c r="O120" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q120" s="40"/>
       <c r="R120" s="40"/>
@@ -12974,7 +12979,7 @@
       <c r="M121" s="21"/>
       <c r="N121" s="31"/>
       <c r="O121" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q121" s="40"/>
       <c r="R121" s="40"/>
@@ -12995,7 +13000,7 @@
       <c r="M122" s="21"/>
       <c r="N122" s="31"/>
       <c r="O122" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q122" s="40"/>
       <c r="R122" s="40"/>
@@ -13016,7 +13021,7 @@
       <c r="M123" s="21"/>
       <c r="N123" s="31"/>
       <c r="O123" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q123" s="40"/>
       <c r="R123" s="40"/>
@@ -13037,7 +13042,7 @@
       <c r="M124" s="21"/>
       <c r="N124" s="31"/>
       <c r="O124" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q124" s="40"/>
       <c r="R124" s="40"/>
@@ -13058,7 +13063,7 @@
       <c r="M125" s="21"/>
       <c r="N125" s="31"/>
       <c r="O125" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q125" s="40"/>
       <c r="R125" s="40"/>
@@ -13079,7 +13084,7 @@
       <c r="M126" s="21"/>
       <c r="N126" s="31"/>
       <c r="O126" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q126" s="40"/>
       <c r="R126" s="40"/>
@@ -13100,7 +13105,7 @@
       <c r="M127" s="21"/>
       <c r="N127" s="31"/>
       <c r="O127" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q127" s="40"/>
       <c r="R127" s="40"/>
@@ -13121,7 +13126,7 @@
       <c r="M128" s="21"/>
       <c r="N128" s="31"/>
       <c r="O128" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q128" s="40"/>
       <c r="R128" s="40"/>
@@ -13142,7 +13147,7 @@
       <c r="M129" s="21"/>
       <c r="N129" s="31"/>
       <c r="O129" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q129" s="40"/>
       <c r="R129" s="40"/>
@@ -13163,7 +13168,7 @@
       <c r="M130" s="21"/>
       <c r="N130" s="31"/>
       <c r="O130" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q130" s="40"/>
       <c r="R130" s="40"/>
@@ -13184,7 +13189,7 @@
       <c r="M131" s="21"/>
       <c r="N131" s="31"/>
       <c r="O131" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q131" s="40"/>
       <c r="R131" s="40"/>
@@ -13205,7 +13210,7 @@
       <c r="M132" s="21"/>
       <c r="N132" s="31"/>
       <c r="O132" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q132" s="40"/>
       <c r="R132" s="40"/>
@@ -13226,7 +13231,7 @@
       <c r="M133" s="21"/>
       <c r="N133" s="31"/>
       <c r="O133" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q133" s="40"/>
       <c r="R133" s="40"/>
@@ -13247,7 +13252,7 @@
       <c r="M134" s="21"/>
       <c r="N134" s="31"/>
       <c r="O134" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q134" s="40"/>
       <c r="R134" s="40"/>
@@ -13268,7 +13273,7 @@
       <c r="M135" s="21"/>
       <c r="N135" s="31"/>
       <c r="O135" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q135" s="40"/>
       <c r="R135" s="40"/>
@@ -13289,7 +13294,7 @@
       <c r="M136" s="21"/>
       <c r="N136" s="31"/>
       <c r="O136" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q136" s="40"/>
       <c r="R136" s="40"/>
@@ -13310,7 +13315,7 @@
       <c r="M137" s="21"/>
       <c r="N137" s="31"/>
       <c r="O137" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q137" s="40"/>
       <c r="R137" s="40"/>
@@ -13331,7 +13336,7 @@
       <c r="M138" s="21"/>
       <c r="N138" s="31"/>
       <c r="O138" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q138" s="40"/>
       <c r="R138" s="40"/>
@@ -13352,7 +13357,7 @@
       <c r="M139" s="21"/>
       <c r="N139" s="31"/>
       <c r="O139" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q139" s="40"/>
       <c r="R139" s="40"/>
@@ -13373,7 +13378,7 @@
       <c r="M140" s="21"/>
       <c r="N140" s="31"/>
       <c r="O140" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q140" s="40"/>
       <c r="R140" s="40"/>
@@ -13394,7 +13399,7 @@
       <c r="M141" s="21"/>
       <c r="N141" s="31"/>
       <c r="O141" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q141" s="40"/>
       <c r="R141" s="40"/>
@@ -13415,7 +13420,7 @@
       <c r="M142" s="21"/>
       <c r="N142" s="31"/>
       <c r="O142" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q142" s="40"/>
       <c r="R142" s="40"/>
@@ -13436,7 +13441,7 @@
       <c r="M143" s="21"/>
       <c r="N143" s="31"/>
       <c r="O143" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q143" s="40"/>
       <c r="R143" s="40"/>
@@ -13457,7 +13462,7 @@
       <c r="M144" s="21"/>
       <c r="N144" s="31"/>
       <c r="O144" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q144" s="40"/>
       <c r="R144" s="40"/>
@@ -13478,7 +13483,7 @@
       <c r="M145" s="21"/>
       <c r="N145" s="31"/>
       <c r="O145" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q145" s="40"/>
       <c r="R145" s="40"/>
@@ -13499,7 +13504,7 @@
       <c r="M146" s="21"/>
       <c r="N146" s="31"/>
       <c r="O146" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q146" s="40"/>
       <c r="R146" s="40"/>
@@ -13520,7 +13525,7 @@
       <c r="M147" s="21"/>
       <c r="N147" s="31"/>
       <c r="O147" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q147" s="40"/>
       <c r="R147" s="40"/>
@@ -13541,7 +13546,7 @@
       <c r="M148" s="21"/>
       <c r="N148" s="31"/>
       <c r="O148" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q148" s="40"/>
       <c r="R148" s="40"/>
@@ -13562,7 +13567,7 @@
       <c r="M149" s="21"/>
       <c r="N149" s="31"/>
       <c r="O149" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q149" s="40"/>
       <c r="R149" s="40"/>
@@ -13583,7 +13588,7 @@
       <c r="M150" s="21"/>
       <c r="N150" s="31"/>
       <c r="O150" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q150" s="40"/>
       <c r="R150" s="40"/>
@@ -13604,7 +13609,7 @@
       <c r="M151" s="21"/>
       <c r="N151" s="31"/>
       <c r="O151" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q151" s="40"/>
       <c r="R151" s="40"/>
@@ -13625,7 +13630,7 @@
       <c r="M152" s="21"/>
       <c r="N152" s="31"/>
       <c r="O152" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q152" s="40"/>
       <c r="R152" s="40"/>
@@ -13646,7 +13651,7 @@
       <c r="M153" s="21"/>
       <c r="N153" s="31"/>
       <c r="O153" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q153" s="40"/>
       <c r="R153" s="40"/>
@@ -13667,7 +13672,7 @@
       <c r="M154" s="21"/>
       <c r="N154" s="31"/>
       <c r="O154" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q154" s="40"/>
       <c r="R154" s="40"/>
@@ -13688,7 +13693,7 @@
       <c r="M155" s="21"/>
       <c r="N155" s="31"/>
       <c r="O155" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q155" s="40"/>
       <c r="R155" s="40"/>
@@ -13709,7 +13714,7 @@
       <c r="M156" s="21"/>
       <c r="N156" s="31"/>
       <c r="O156" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q156" s="40"/>
       <c r="R156" s="40"/>
@@ -13730,7 +13735,7 @@
       <c r="M157" s="21"/>
       <c r="N157" s="31"/>
       <c r="O157" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q157" s="40"/>
       <c r="R157" s="40"/>
@@ -13751,7 +13756,7 @@
       <c r="M158" s="21"/>
       <c r="N158" s="31"/>
       <c r="O158" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q158" s="40"/>
       <c r="R158" s="40"/>
@@ -13772,7 +13777,7 @@
       <c r="M159" s="21"/>
       <c r="N159" s="31"/>
       <c r="O159" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q159" s="40"/>
       <c r="R159" s="40"/>
@@ -13793,7 +13798,7 @@
       <c r="M160" s="21"/>
       <c r="N160" s="31"/>
       <c r="O160" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q160" s="40"/>
       <c r="R160" s="40"/>
@@ -13814,7 +13819,7 @@
       <c r="M161" s="21"/>
       <c r="N161" s="31"/>
       <c r="O161" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q161" s="40"/>
       <c r="R161" s="40"/>
@@ -13835,7 +13840,7 @@
       <c r="M162" s="21"/>
       <c r="N162" s="31"/>
       <c r="O162" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q162" s="40"/>
       <c r="R162" s="40"/>
@@ -13856,7 +13861,7 @@
       <c r="M163" s="21"/>
       <c r="N163" s="31"/>
       <c r="O163" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q163" s="40"/>
       <c r="R163" s="40"/>
@@ -13877,7 +13882,7 @@
       <c r="M164" s="21"/>
       <c r="N164" s="31"/>
       <c r="O164" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q164" s="40"/>
       <c r="R164" s="40"/>
@@ -13898,7 +13903,7 @@
       <c r="M165" s="21"/>
       <c r="N165" s="31"/>
       <c r="O165" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q165" s="40"/>
       <c r="R165" s="40"/>
@@ -13919,7 +13924,7 @@
       <c r="M166" s="21"/>
       <c r="N166" s="31"/>
       <c r="O166" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q166" s="40"/>
       <c r="R166" s="40"/>
@@ -13940,7 +13945,7 @@
       <c r="M167" s="21"/>
       <c r="N167" s="31"/>
       <c r="O167" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q167" s="40"/>
       <c r="R167" s="40"/>
@@ -13961,7 +13966,7 @@
       <c r="M168" s="21"/>
       <c r="N168" s="31"/>
       <c r="O168" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q168" s="40"/>
       <c r="R168" s="40"/>
@@ -13982,7 +13987,7 @@
       <c r="M169" s="21"/>
       <c r="N169" s="31"/>
       <c r="O169" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q169" s="40"/>
       <c r="R169" s="40"/>
@@ -14003,7 +14008,7 @@
       <c r="M170" s="21"/>
       <c r="N170" s="31"/>
       <c r="O170" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q170" s="40"/>
       <c r="R170" s="40"/>
@@ -14024,7 +14029,7 @@
       <c r="M171" s="21"/>
       <c r="N171" s="31"/>
       <c r="O171" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q171" s="40"/>
       <c r="R171" s="40"/>
@@ -14045,7 +14050,7 @@
       <c r="M172" s="21"/>
       <c r="N172" s="31"/>
       <c r="O172" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q172" s="40"/>
       <c r="R172" s="40"/>
@@ -14066,7 +14071,7 @@
       <c r="M173" s="21"/>
       <c r="N173" s="31"/>
       <c r="O173" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q173" s="40"/>
       <c r="R173" s="40"/>
@@ -14087,7 +14092,7 @@
       <c r="M174" s="21"/>
       <c r="N174" s="31"/>
       <c r="O174" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q174" s="40"/>
       <c r="R174" s="40"/>
@@ -14108,7 +14113,7 @@
       <c r="M175" s="21"/>
       <c r="N175" s="31"/>
       <c r="O175" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q175" s="40"/>
       <c r="R175" s="40"/>
@@ -14129,7 +14134,7 @@
       <c r="M176" s="21"/>
       <c r="N176" s="31"/>
       <c r="O176" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q176" s="40"/>
       <c r="R176" s="40"/>
@@ -14150,7 +14155,7 @@
       <c r="M177" s="21"/>
       <c r="N177" s="31"/>
       <c r="O177" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q177" s="40"/>
       <c r="R177" s="40"/>
@@ -14171,7 +14176,7 @@
       <c r="M178" s="21"/>
       <c r="N178" s="31"/>
       <c r="O178" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q178" s="40"/>
       <c r="R178" s="40"/>
@@ -14192,7 +14197,7 @@
       <c r="M179" s="21"/>
       <c r="N179" s="31"/>
       <c r="O179" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q179" s="40"/>
       <c r="R179" s="40"/>
@@ -14213,7 +14218,7 @@
       <c r="M180" s="21"/>
       <c r="N180" s="31"/>
       <c r="O180" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q180" s="40"/>
       <c r="R180" s="40"/>
@@ -14234,7 +14239,7 @@
       <c r="M181" s="21"/>
       <c r="N181" s="31"/>
       <c r="O181" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q181" s="40"/>
       <c r="R181" s="40"/>
@@ -14255,7 +14260,7 @@
       <c r="M182" s="21"/>
       <c r="N182" s="31"/>
       <c r="O182" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q182" s="40"/>
       <c r="R182" s="40"/>
@@ -14276,7 +14281,7 @@
       <c r="M183" s="21"/>
       <c r="N183" s="31"/>
       <c r="O183" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q183" s="40"/>
       <c r="R183" s="40"/>
@@ -14297,7 +14302,7 @@
       <c r="M184" s="21"/>
       <c r="N184" s="31"/>
       <c r="O184" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q184" s="40"/>
       <c r="R184" s="40"/>
@@ -14318,7 +14323,7 @@
       <c r="M185" s="21"/>
       <c r="N185" s="31"/>
       <c r="O185" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q185" s="40"/>
       <c r="R185" s="40"/>
@@ -14339,7 +14344,7 @@
       <c r="M186" s="21"/>
       <c r="N186" s="31"/>
       <c r="O186" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q186" s="40"/>
       <c r="R186" s="40"/>
@@ -14360,7 +14365,7 @@
       <c r="M187" s="21"/>
       <c r="N187" s="31"/>
       <c r="O187" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q187" s="40"/>
       <c r="R187" s="40"/>
@@ -14381,7 +14386,7 @@
       <c r="M188" s="21"/>
       <c r="N188" s="31"/>
       <c r="O188" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q188" s="40"/>
       <c r="R188" s="40"/>
@@ -14402,7 +14407,7 @@
       <c r="M189" s="21"/>
       <c r="N189" s="31"/>
       <c r="O189" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q189" s="40"/>
       <c r="R189" s="40"/>
@@ -14423,7 +14428,7 @@
       <c r="M190" s="21"/>
       <c r="N190" s="31"/>
       <c r="O190" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q190" s="40"/>
       <c r="R190" s="40"/>
@@ -14444,7 +14449,7 @@
       <c r="M191" s="21"/>
       <c r="N191" s="31"/>
       <c r="O191" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q191" s="40"/>
       <c r="R191" s="40"/>
@@ -14465,7 +14470,7 @@
       <c r="M192" s="21"/>
       <c r="N192" s="31"/>
       <c r="O192" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q192" s="40"/>
       <c r="R192" s="40"/>
@@ -14486,7 +14491,7 @@
       <c r="M193" s="21"/>
       <c r="N193" s="31"/>
       <c r="O193" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q193" s="40"/>
       <c r="R193" s="40"/>
@@ -14507,7 +14512,7 @@
       <c r="M194" s="21"/>
       <c r="N194" s="31"/>
       <c r="O194" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q194" s="40"/>
       <c r="R194" s="40"/>
@@ -14528,7 +14533,7 @@
       <c r="M195" s="21"/>
       <c r="N195" s="31"/>
       <c r="O195" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q195" s="40"/>
       <c r="R195" s="40"/>
@@ -14549,7 +14554,7 @@
       <c r="M196" s="21"/>
       <c r="N196" s="31"/>
       <c r="O196" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q196" s="40"/>
       <c r="R196" s="40"/>
@@ -14570,7 +14575,7 @@
       <c r="M197" s="21"/>
       <c r="N197" s="31"/>
       <c r="O197" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q197" s="40"/>
       <c r="R197" s="40"/>
@@ -14591,7 +14596,7 @@
       <c r="M198" s="21"/>
       <c r="N198" s="31"/>
       <c r="O198" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q198" s="40"/>
       <c r="R198" s="40"/>
@@ -14612,7 +14617,7 @@
       <c r="M199" s="21"/>
       <c r="N199" s="31"/>
       <c r="O199" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q199" s="40"/>
       <c r="R199" s="40"/>
@@ -14633,7 +14638,7 @@
       <c r="M200" s="21"/>
       <c r="N200" s="31"/>
       <c r="O200" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q200" s="40"/>
       <c r="R200" s="40"/>
@@ -14654,7 +14659,7 @@
       <c r="M201" s="21"/>
       <c r="N201" s="31"/>
       <c r="O201" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q201" s="40"/>
       <c r="R201" s="40"/>
@@ -14675,7 +14680,7 @@
       <c r="M202" s="21"/>
       <c r="N202" s="31"/>
       <c r="O202" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q202" s="40"/>
       <c r="R202" s="40"/>
@@ -14696,7 +14701,7 @@
       <c r="M203" s="21"/>
       <c r="N203" s="31"/>
       <c r="O203" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q203" s="40"/>
       <c r="R203" s="40"/>
@@ -14717,7 +14722,7 @@
       <c r="M204" s="21"/>
       <c r="N204" s="31"/>
       <c r="O204" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q204" s="40"/>
       <c r="R204" s="40"/>
@@ -14738,7 +14743,7 @@
       <c r="M205" s="21"/>
       <c r="N205" s="31"/>
       <c r="O205" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q205" s="40"/>
       <c r="R205" s="40"/>
@@ -14759,7 +14764,7 @@
       <c r="M206" s="21"/>
       <c r="N206" s="31"/>
       <c r="O206" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q206" s="40"/>
       <c r="R206" s="40"/>
@@ -14780,7 +14785,7 @@
       <c r="M207" s="21"/>
       <c r="N207" s="31"/>
       <c r="O207" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q207" s="40"/>
       <c r="R207" s="40"/>
@@ -14801,7 +14806,7 @@
       <c r="M208" s="21"/>
       <c r="N208" s="31"/>
       <c r="O208" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q208" s="40"/>
       <c r="R208" s="40"/>
@@ -14822,7 +14827,7 @@
       <c r="M209" s="21"/>
       <c r="N209" s="31"/>
       <c r="O209" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q209" s="40"/>
       <c r="R209" s="40"/>
@@ -14843,7 +14848,7 @@
       <c r="M210" s="21"/>
       <c r="N210" s="31"/>
       <c r="O210" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q210" s="40"/>
       <c r="R210" s="40"/>
@@ -14864,7 +14869,7 @@
       <c r="M211" s="21"/>
       <c r="N211" s="31"/>
       <c r="O211" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q211" s="40"/>
       <c r="R211" s="40"/>
@@ -14885,7 +14890,7 @@
       <c r="M212" s="21"/>
       <c r="N212" s="31"/>
       <c r="O212" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q212" s="40"/>
       <c r="R212" s="40"/>
@@ -14906,7 +14911,7 @@
       <c r="M213" s="21"/>
       <c r="N213" s="31"/>
       <c r="O213" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q213" s="40"/>
       <c r="R213" s="40"/>
@@ -14927,7 +14932,7 @@
       <c r="M214" s="21"/>
       <c r="N214" s="31"/>
       <c r="O214" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q214" s="40"/>
       <c r="R214" s="40"/>
@@ -14948,7 +14953,7 @@
       <c r="M215" s="21"/>
       <c r="N215" s="31"/>
       <c r="O215" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q215" s="40"/>
       <c r="R215" s="40"/>
@@ -14969,7 +14974,7 @@
       <c r="M216" s="21"/>
       <c r="N216" s="31"/>
       <c r="O216" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q216" s="40"/>
       <c r="R216" s="40"/>
@@ -14990,7 +14995,7 @@
       <c r="M217" s="21"/>
       <c r="N217" s="31"/>
       <c r="O217" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q217" s="40"/>
       <c r="R217" s="40"/>
@@ -15011,7 +15016,7 @@
       <c r="M218" s="21"/>
       <c r="N218" s="31"/>
       <c r="O218" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q218" s="40"/>
       <c r="R218" s="40"/>
@@ -15032,7 +15037,7 @@
       <c r="M219" s="21"/>
       <c r="N219" s="31"/>
       <c r="O219" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q219" s="40"/>
       <c r="R219" s="40"/>
@@ -15053,7 +15058,7 @@
       <c r="M220" s="21"/>
       <c r="N220" s="31"/>
       <c r="O220" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q220" s="40"/>
       <c r="R220" s="40"/>
@@ -15074,7 +15079,7 @@
       <c r="M221" s="21"/>
       <c r="N221" s="31"/>
       <c r="O221" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q221" s="40"/>
       <c r="R221" s="40"/>
@@ -15095,7 +15100,7 @@
       <c r="M222" s="21"/>
       <c r="N222" s="31"/>
       <c r="O222" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q222" s="40"/>
       <c r="R222" s="40"/>
@@ -15116,7 +15121,7 @@
       <c r="M223" s="21"/>
       <c r="N223" s="31"/>
       <c r="O223" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q223" s="40"/>
       <c r="R223" s="40"/>
@@ -15137,7 +15142,7 @@
       <c r="M224" s="21"/>
       <c r="N224" s="31"/>
       <c r="O224" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q224" s="40"/>
       <c r="R224" s="40"/>
@@ -15158,7 +15163,7 @@
       <c r="M225" s="21"/>
       <c r="N225" s="31"/>
       <c r="O225" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q225" s="40"/>
       <c r="R225" s="40"/>
@@ -15179,7 +15184,7 @@
       <c r="M226" s="21"/>
       <c r="N226" s="31"/>
       <c r="O226" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q226" s="40"/>
       <c r="R226" s="40"/>
@@ -15200,7 +15205,7 @@
       <c r="M227" s="21"/>
       <c r="N227" s="31"/>
       <c r="O227" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q227" s="40"/>
       <c r="R227" s="40"/>
@@ -15221,7 +15226,7 @@
       <c r="M228" s="21"/>
       <c r="N228" s="31"/>
       <c r="O228" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q228" s="40"/>
       <c r="R228" s="40"/>
@@ -15242,7 +15247,7 @@
       <c r="M229" s="21"/>
       <c r="N229" s="31"/>
       <c r="O229" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q229" s="40"/>
       <c r="R229" s="40"/>
@@ -15263,7 +15268,7 @@
       <c r="M230" s="21"/>
       <c r="N230" s="31"/>
       <c r="O230" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q230" s="40"/>
       <c r="R230" s="40"/>
@@ -15284,7 +15289,7 @@
       <c r="M231" s="21"/>
       <c r="N231" s="31"/>
       <c r="O231" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q231" s="40"/>
       <c r="R231" s="40"/>
@@ -15305,7 +15310,7 @@
       <c r="M232" s="21"/>
       <c r="N232" s="31"/>
       <c r="O232" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q232" s="40"/>
       <c r="R232" s="40"/>
@@ -15326,7 +15331,7 @@
       <c r="M233" s="21"/>
       <c r="N233" s="31"/>
       <c r="O233" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q233" s="40"/>
       <c r="R233" s="40"/>
@@ -15347,7 +15352,7 @@
       <c r="M234" s="21"/>
       <c r="N234" s="31"/>
       <c r="O234" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q234" s="40"/>
       <c r="R234" s="40"/>
@@ -15368,7 +15373,7 @@
       <c r="M235" s="21"/>
       <c r="N235" s="31"/>
       <c r="O235" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q235" s="40"/>
       <c r="R235" s="40"/>
@@ -15389,7 +15394,7 @@
       <c r="M236" s="21"/>
       <c r="N236" s="31"/>
       <c r="O236" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q236" s="40"/>
       <c r="R236" s="40"/>
@@ -15410,7 +15415,7 @@
       <c r="M237" s="21"/>
       <c r="N237" s="31"/>
       <c r="O237" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q237" s="40"/>
       <c r="R237" s="40"/>
@@ -15431,7 +15436,7 @@
       <c r="M238" s="21"/>
       <c r="N238" s="31"/>
       <c r="O238" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q238" s="40"/>
       <c r="R238" s="40"/>
@@ -15452,7 +15457,7 @@
       <c r="M239" s="21"/>
       <c r="N239" s="31"/>
       <c r="O239" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q239" s="40"/>
       <c r="R239" s="40"/>
@@ -15473,7 +15478,7 @@
       <c r="M240" s="21"/>
       <c r="N240" s="31"/>
       <c r="O240" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q240" s="40"/>
       <c r="R240" s="40"/>
@@ -15494,7 +15499,7 @@
       <c r="M241" s="21"/>
       <c r="N241" s="31"/>
       <c r="O241" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q241" s="40"/>
       <c r="R241" s="40"/>
@@ -15515,7 +15520,7 @@
       <c r="M242" s="21"/>
       <c r="N242" s="31"/>
       <c r="O242" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q242" s="40"/>
       <c r="R242" s="40"/>
@@ -15536,7 +15541,7 @@
       <c r="M243" s="21"/>
       <c r="N243" s="31"/>
       <c r="O243" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q243" s="40"/>
       <c r="R243" s="40"/>
@@ -15557,7 +15562,7 @@
       <c r="M244" s="21"/>
       <c r="N244" s="31"/>
       <c r="O244" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q244" s="40"/>
       <c r="R244" s="40"/>
@@ -15578,7 +15583,7 @@
       <c r="M245" s="21"/>
       <c r="N245" s="31"/>
       <c r="O245" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q245" s="40"/>
       <c r="R245" s="40"/>
@@ -15599,7 +15604,7 @@
       <c r="M246" s="21"/>
       <c r="N246" s="31"/>
       <c r="O246" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q246" s="40"/>
       <c r="R246" s="40"/>
@@ -15620,7 +15625,7 @@
       <c r="M247" s="21"/>
       <c r="N247" s="31"/>
       <c r="O247" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q247" s="40"/>
       <c r="R247" s="40"/>
@@ -15641,7 +15646,7 @@
       <c r="M248" s="21"/>
       <c r="N248" s="31"/>
       <c r="O248" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q248" s="40"/>
       <c r="R248" s="40"/>
@@ -15662,7 +15667,7 @@
       <c r="M249" s="21"/>
       <c r="N249" s="31"/>
       <c r="O249" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q249" s="40"/>
       <c r="R249" s="40"/>
@@ -15683,7 +15688,7 @@
       <c r="M250" s="21"/>
       <c r="N250" s="31"/>
       <c r="O250" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q250" s="40"/>
       <c r="R250" s="40"/>
@@ -15704,7 +15709,7 @@
       <c r="M251" s="21"/>
       <c r="N251" s="31"/>
       <c r="O251" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q251" s="40"/>
       <c r="R251" s="40"/>
@@ -15725,7 +15730,7 @@
       <c r="M252" s="21"/>
       <c r="N252" s="31"/>
       <c r="O252" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q252" s="40"/>
       <c r="R252" s="40"/>
@@ -15746,7 +15751,7 @@
       <c r="M253" s="21"/>
       <c r="N253" s="31"/>
       <c r="O253" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q253" s="40"/>
       <c r="R253" s="40"/>
@@ -15767,7 +15772,7 @@
       <c r="M254" s="21"/>
       <c r="N254" s="31"/>
       <c r="O254" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q254" s="40"/>
       <c r="R254" s="40"/>
@@ -15788,7 +15793,7 @@
       <c r="M255" s="21"/>
       <c r="N255" s="31"/>
       <c r="O255" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q255" s="40"/>
       <c r="R255" s="40"/>
@@ -15809,7 +15814,7 @@
       <c r="M256" s="21"/>
       <c r="N256" s="31"/>
       <c r="O256" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q256" s="40"/>
       <c r="R256" s="40"/>
@@ -15830,7 +15835,7 @@
       <c r="M257" s="21"/>
       <c r="N257" s="31"/>
       <c r="O257" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q257" s="40"/>
       <c r="R257" s="40"/>
@@ -15851,7 +15856,7 @@
       <c r="M258" s="21"/>
       <c r="N258" s="31"/>
       <c r="O258" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q258" s="40"/>
       <c r="R258" s="40"/>
@@ -15872,7 +15877,7 @@
       <c r="M259" s="21"/>
       <c r="N259" s="31"/>
       <c r="O259" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q259" s="40"/>
       <c r="R259" s="40"/>
@@ -15893,7 +15898,7 @@
       <c r="M260" s="21"/>
       <c r="N260" s="31"/>
       <c r="O260" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q260" s="40"/>
       <c r="R260" s="40"/>
@@ -15914,7 +15919,7 @@
       <c r="M261" s="21"/>
       <c r="N261" s="31"/>
       <c r="O261" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q261" s="40"/>
       <c r="R261" s="40"/>
@@ -15935,7 +15940,7 @@
       <c r="M262" s="21"/>
       <c r="N262" s="31"/>
       <c r="O262" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q262" s="40"/>
       <c r="R262" s="40"/>
@@ -15956,7 +15961,7 @@
       <c r="M263" s="21"/>
       <c r="N263" s="31"/>
       <c r="O263" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q263" s="40"/>
       <c r="R263" s="40"/>
@@ -15977,7 +15982,7 @@
       <c r="M264" s="21"/>
       <c r="N264" s="31"/>
       <c r="O264" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q264" s="40"/>
       <c r="R264" s="40"/>
@@ -15998,7 +16003,7 @@
       <c r="M265" s="21"/>
       <c r="N265" s="31"/>
       <c r="O265" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q265" s="40"/>
       <c r="R265" s="40"/>
@@ -16019,7 +16024,7 @@
       <c r="M266" s="21"/>
       <c r="N266" s="31"/>
       <c r="O266" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q266" s="40"/>
       <c r="R266" s="40"/>
@@ -16040,7 +16045,7 @@
       <c r="M267" s="21"/>
       <c r="N267" s="31"/>
       <c r="O267" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q267" s="40"/>
       <c r="R267" s="40"/>
@@ -16061,7 +16066,7 @@
       <c r="M268" s="21"/>
       <c r="N268" s="31"/>
       <c r="O268" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q268" s="40"/>
       <c r="R268" s="40"/>
@@ -16082,7 +16087,7 @@
       <c r="M269" s="21"/>
       <c r="N269" s="31"/>
       <c r="O269" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q269" s="40"/>
       <c r="R269" s="40"/>
@@ -16103,7 +16108,7 @@
       <c r="M270" s="21"/>
       <c r="N270" s="31"/>
       <c r="O270" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q270" s="40"/>
       <c r="R270" s="40"/>
@@ -16124,7 +16129,7 @@
       <c r="M271" s="21"/>
       <c r="N271" s="31"/>
       <c r="O271" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q271" s="40"/>
       <c r="R271" s="40"/>
@@ -16145,7 +16150,7 @@
       <c r="M272" s="21"/>
       <c r="N272" s="31"/>
       <c r="O272" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q272" s="40"/>
       <c r="R272" s="40"/>
@@ -16166,7 +16171,7 @@
       <c r="M273" s="21"/>
       <c r="N273" s="31"/>
       <c r="O273" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q273" s="40"/>
       <c r="R273" s="40"/>
@@ -16187,7 +16192,7 @@
       <c r="M274" s="21"/>
       <c r="N274" s="31"/>
       <c r="O274" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q274" s="40"/>
       <c r="R274" s="40"/>
@@ -16208,7 +16213,7 @@
       <c r="M275" s="21"/>
       <c r="N275" s="31"/>
       <c r="O275" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q275" s="40"/>
       <c r="R275" s="40"/>
@@ -16229,7 +16234,7 @@
       <c r="M276" s="21"/>
       <c r="N276" s="31"/>
       <c r="O276" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q276" s="40"/>
       <c r="R276" s="40"/>
@@ -16250,7 +16255,7 @@
       <c r="M277" s="21"/>
       <c r="N277" s="31"/>
       <c r="O277" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q277" s="40"/>
       <c r="R277" s="40"/>
@@ -16271,7 +16276,7 @@
       <c r="M278" s="21"/>
       <c r="N278" s="31"/>
       <c r="O278" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q278" s="40"/>
       <c r="R278" s="40"/>
@@ -16292,7 +16297,7 @@
       <c r="M279" s="21"/>
       <c r="N279" s="31"/>
       <c r="O279" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q279" s="40"/>
       <c r="R279" s="40"/>
@@ -16313,7 +16318,7 @@
       <c r="M280" s="21"/>
       <c r="N280" s="31"/>
       <c r="O280" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q280" s="40"/>
       <c r="R280" s="40"/>
@@ -16334,7 +16339,7 @@
       <c r="M281" s="21"/>
       <c r="N281" s="31"/>
       <c r="O281" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q281" s="40"/>
       <c r="R281" s="40"/>
@@ -16355,7 +16360,7 @@
       <c r="M282" s="21"/>
       <c r="N282" s="31"/>
       <c r="O282" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q282" s="40"/>
       <c r="R282" s="40"/>
@@ -16376,7 +16381,7 @@
       <c r="M283" s="21"/>
       <c r="N283" s="31"/>
       <c r="O283" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q283" s="40"/>
       <c r="R283" s="40"/>
@@ -16397,7 +16402,7 @@
       <c r="M284" s="21"/>
       <c r="N284" s="31"/>
       <c r="O284" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q284" s="40"/>
       <c r="R284" s="40"/>
@@ -16418,7 +16423,7 @@
       <c r="M285" s="21"/>
       <c r="N285" s="31"/>
       <c r="O285" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q285" s="40"/>
       <c r="R285" s="40"/>
@@ -16439,7 +16444,7 @@
       <c r="M286" s="21"/>
       <c r="N286" s="31"/>
       <c r="O286" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q286" s="40"/>
       <c r="R286" s="40"/>
@@ -16460,7 +16465,7 @@
       <c r="M287" s="21"/>
       <c r="N287" s="31"/>
       <c r="O287" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q287" s="40"/>
       <c r="R287" s="40"/>
@@ -16481,7 +16486,7 @@
       <c r="M288" s="21"/>
       <c r="N288" s="31"/>
       <c r="O288" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q288" s="40"/>
       <c r="R288" s="40"/>
@@ -16502,7 +16507,7 @@
       <c r="M289" s="21"/>
       <c r="N289" s="31"/>
       <c r="O289" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q289" s="40"/>
       <c r="R289" s="40"/>
@@ -16523,7 +16528,7 @@
       <c r="M290" s="21"/>
       <c r="N290" s="31"/>
       <c r="O290" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q290" s="40"/>
       <c r="R290" s="40"/>
@@ -16544,7 +16549,7 @@
       <c r="M291" s="21"/>
       <c r="N291" s="31"/>
       <c r="O291" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q291" s="40"/>
       <c r="R291" s="40"/>
@@ -16565,7 +16570,7 @@
       <c r="M292" s="21"/>
       <c r="N292" s="31"/>
       <c r="O292" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q292" s="40"/>
       <c r="R292" s="40"/>
@@ -16586,7 +16591,7 @@
       <c r="M293" s="21"/>
       <c r="N293" s="31"/>
       <c r="O293" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q293" s="40"/>
       <c r="R293" s="40"/>
@@ -16607,7 +16612,7 @@
       <c r="M294" s="21"/>
       <c r="N294" s="31"/>
       <c r="O294" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q294" s="40"/>
       <c r="R294" s="40"/>
@@ -16628,7 +16633,7 @@
       <c r="M295" s="21"/>
       <c r="N295" s="31"/>
       <c r="O295" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q295" s="40"/>
       <c r="R295" s="40"/>
@@ -16649,7 +16654,7 @@
       <c r="M296" s="21"/>
       <c r="N296" s="31"/>
       <c r="O296" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q296" s="40"/>
       <c r="R296" s="40"/>
@@ -16670,7 +16675,7 @@
       <c r="M297" s="21"/>
       <c r="N297" s="31"/>
       <c r="O297" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q297" s="40"/>
       <c r="R297" s="40"/>
@@ -16691,7 +16696,7 @@
       <c r="M298" s="21"/>
       <c r="N298" s="31"/>
       <c r="O298" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q298" s="40"/>
       <c r="R298" s="40"/>
@@ -16712,7 +16717,7 @@
       <c r="M299" s="21"/>
       <c r="N299" s="31"/>
       <c r="O299" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q299" s="40"/>
       <c r="R299" s="40"/>
@@ -16733,7 +16738,7 @@
       <c r="M300" s="21"/>
       <c r="N300" s="31"/>
       <c r="O300" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q300" s="40"/>
       <c r="R300" s="40"/>
@@ -16754,7 +16759,7 @@
       <c r="M301" s="21"/>
       <c r="N301" s="31"/>
       <c r="O301" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q301" s="40"/>
       <c r="R301" s="40"/>
@@ -16775,7 +16780,7 @@
       <c r="M302" s="21"/>
       <c r="N302" s="31"/>
       <c r="O302" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q302" s="40"/>
       <c r="R302" s="40"/>
@@ -16796,7 +16801,7 @@
       <c r="M303" s="21"/>
       <c r="N303" s="31"/>
       <c r="O303" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q303" s="40"/>
       <c r="R303" s="40"/>
@@ -16817,7 +16822,7 @@
       <c r="M304" s="21"/>
       <c r="N304" s="31"/>
       <c r="O304" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q304" s="40"/>
       <c r="R304" s="40"/>
@@ -16838,7 +16843,7 @@
       <c r="M305" s="21"/>
       <c r="N305" s="31"/>
       <c r="O305" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q305" s="40"/>
       <c r="R305" s="40"/>
@@ -16859,7 +16864,7 @@
       <c r="M306" s="21"/>
       <c r="N306" s="31"/>
       <c r="O306" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q306" s="40"/>
       <c r="R306" s="40"/>
@@ -16880,7 +16885,7 @@
       <c r="M307" s="21"/>
       <c r="N307" s="31"/>
       <c r="O307" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q307" s="40"/>
       <c r="R307" s="40"/>
@@ -16901,7 +16906,7 @@
       <c r="M308" s="21"/>
       <c r="N308" s="31"/>
       <c r="O308" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q308" s="40"/>
       <c r="R308" s="40"/>
@@ -16922,7 +16927,7 @@
       <c r="M309" s="21"/>
       <c r="N309" s="31"/>
       <c r="O309" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q309" s="40"/>
       <c r="R309" s="40"/>
@@ -16943,7 +16948,7 @@
       <c r="M310" s="21"/>
       <c r="N310" s="31"/>
       <c r="O310" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q310" s="40"/>
       <c r="R310" s="40"/>
@@ -16964,7 +16969,7 @@
       <c r="M311" s="21"/>
       <c r="N311" s="31"/>
       <c r="O311" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q311" s="40"/>
       <c r="R311" s="40"/>
@@ -16985,7 +16990,7 @@
       <c r="M312" s="21"/>
       <c r="N312" s="31"/>
       <c r="O312" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q312" s="40"/>
       <c r="R312" s="40"/>
@@ -17006,7 +17011,7 @@
       <c r="M313" s="21"/>
       <c r="N313" s="31"/>
       <c r="O313" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q313" s="40"/>
       <c r="R313" s="40"/>
@@ -17027,7 +17032,7 @@
       <c r="M314" s="21"/>
       <c r="N314" s="31"/>
       <c r="O314" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q314" s="40"/>
       <c r="R314" s="40"/>
@@ -17048,7 +17053,7 @@
       <c r="M315" s="21"/>
       <c r="N315" s="31"/>
       <c r="O315" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q315" s="40"/>
       <c r="R315" s="40"/>
@@ -17069,7 +17074,7 @@
       <c r="M316" s="21"/>
       <c r="N316" s="31"/>
       <c r="O316" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q316" s="40"/>
       <c r="R316" s="40"/>
@@ -17090,7 +17095,7 @@
       <c r="M317" s="21"/>
       <c r="N317" s="31"/>
       <c r="O317" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q317" s="40"/>
       <c r="R317" s="40"/>
@@ -17111,7 +17116,7 @@
       <c r="M318" s="21"/>
       <c r="N318" s="31"/>
       <c r="O318" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q318" s="40"/>
       <c r="R318" s="40"/>
@@ -17132,7 +17137,7 @@
       <c r="M319" s="21"/>
       <c r="N319" s="31"/>
       <c r="O319" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q319" s="40"/>
       <c r="R319" s="40"/>
@@ -17153,7 +17158,7 @@
       <c r="M320" s="21"/>
       <c r="N320" s="31"/>
       <c r="O320" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q320" s="40"/>
       <c r="R320" s="40"/>
@@ -17174,7 +17179,7 @@
       <c r="M321" s="21"/>
       <c r="N321" s="31"/>
       <c r="O321" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q321" s="40"/>
       <c r="R321" s="40"/>
@@ -17195,7 +17200,7 @@
       <c r="M322" s="21"/>
       <c r="N322" s="31"/>
       <c r="O322" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q322" s="40"/>
       <c r="R322" s="40"/>
@@ -17216,7 +17221,7 @@
       <c r="M323" s="21"/>
       <c r="N323" s="31"/>
       <c r="O323" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q323" s="40"/>
       <c r="R323" s="40"/>
@@ -17237,7 +17242,7 @@
       <c r="M324" s="21"/>
       <c r="N324" s="31"/>
       <c r="O324" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q324" s="40"/>
       <c r="R324" s="40"/>
@@ -17258,7 +17263,7 @@
       <c r="M325" s="21"/>
       <c r="N325" s="31"/>
       <c r="O325" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q325" s="40"/>
       <c r="R325" s="40"/>
@@ -17279,7 +17284,7 @@
       <c r="M326" s="21"/>
       <c r="N326" s="31"/>
       <c r="O326" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q326" s="40"/>
       <c r="R326" s="40"/>
@@ -17300,7 +17305,7 @@
       <c r="M327" s="21"/>
       <c r="N327" s="31"/>
       <c r="O327" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q327" s="40"/>
       <c r="R327" s="40"/>
@@ -17321,7 +17326,7 @@
       <c r="M328" s="21"/>
       <c r="N328" s="31"/>
       <c r="O328" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q328" s="40"/>
       <c r="R328" s="40"/>
@@ -17342,7 +17347,7 @@
       <c r="M329" s="21"/>
       <c r="N329" s="31"/>
       <c r="O329" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q329" s="40"/>
       <c r="R329" s="40"/>
@@ -17363,7 +17368,7 @@
       <c r="M330" s="21"/>
       <c r="N330" s="31"/>
       <c r="O330" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q330" s="40"/>
       <c r="R330" s="40"/>
@@ -17384,7 +17389,7 @@
       <c r="M331" s="21"/>
       <c r="N331" s="31"/>
       <c r="O331" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q331" s="40"/>
       <c r="R331" s="40"/>
@@ -17405,7 +17410,7 @@
       <c r="M332" s="21"/>
       <c r="N332" s="31"/>
       <c r="O332" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q332" s="40"/>
       <c r="R332" s="40"/>
@@ -17426,7 +17431,7 @@
       <c r="M333" s="21"/>
       <c r="N333" s="31"/>
       <c r="O333" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q333" s="40"/>
       <c r="R333" s="40"/>
@@ -17447,7 +17452,7 @@
       <c r="M334" s="21"/>
       <c r="N334" s="31"/>
       <c r="O334" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q334" s="40"/>
       <c r="R334" s="40"/>
@@ -17468,7 +17473,7 @@
       <c r="M335" s="21"/>
       <c r="N335" s="31"/>
       <c r="O335" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q335" s="40"/>
       <c r="R335" s="40"/>
@@ -17489,7 +17494,7 @@
       <c r="M336" s="21"/>
       <c r="N336" s="31"/>
       <c r="O336" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q336" s="40"/>
       <c r="R336" s="40"/>
@@ -17510,7 +17515,7 @@
       <c r="M337" s="21"/>
       <c r="N337" s="31"/>
       <c r="O337" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q337" s="40"/>
       <c r="R337" s="40"/>
@@ -17531,7 +17536,7 @@
       <c r="M338" s="21"/>
       <c r="N338" s="31"/>
       <c r="O338" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q338" s="40"/>
       <c r="R338" s="40"/>
@@ -17552,7 +17557,7 @@
       <c r="M339" s="21"/>
       <c r="N339" s="31"/>
       <c r="O339" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q339" s="40"/>
       <c r="R339" s="40"/>
@@ -17573,7 +17578,7 @@
       <c r="M340" s="21"/>
       <c r="N340" s="31"/>
       <c r="O340" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q340" s="40"/>
       <c r="R340" s="40"/>
@@ -17594,7 +17599,7 @@
       <c r="M341" s="21"/>
       <c r="N341" s="31"/>
       <c r="O341" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q341" s="40"/>
       <c r="R341" s="40"/>
@@ -17615,7 +17620,7 @@
       <c r="M342" s="21"/>
       <c r="N342" s="31"/>
       <c r="O342" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q342" s="40"/>
       <c r="R342" s="40"/>
@@ -17636,7 +17641,7 @@
       <c r="M343" s="21"/>
       <c r="N343" s="31"/>
       <c r="O343" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q343" s="40"/>
       <c r="R343" s="40"/>
@@ -17657,7 +17662,7 @@
       <c r="M344" s="21"/>
       <c r="N344" s="31"/>
       <c r="O344" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q344" s="40"/>
       <c r="R344" s="40"/>
@@ -17678,7 +17683,7 @@
       <c r="M345" s="21"/>
       <c r="N345" s="31"/>
       <c r="O345" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q345" s="40"/>
       <c r="R345" s="40"/>
@@ -17699,7 +17704,7 @@
       <c r="M346" s="21"/>
       <c r="N346" s="31"/>
       <c r="O346" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q346" s="40"/>
       <c r="R346" s="40"/>
@@ -17720,7 +17725,7 @@
       <c r="M347" s="21"/>
       <c r="N347" s="31"/>
       <c r="O347" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q347" s="40"/>
       <c r="R347" s="40"/>
@@ -17741,7 +17746,7 @@
       <c r="M348" s="21"/>
       <c r="N348" s="31"/>
       <c r="O348" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q348" s="40"/>
       <c r="R348" s="40"/>
@@ -17762,7 +17767,7 @@
       <c r="M349" s="21"/>
       <c r="N349" s="31"/>
       <c r="O349" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q349" s="40"/>
       <c r="R349" s="40"/>
@@ -17783,7 +17788,7 @@
       <c r="M350" s="21"/>
       <c r="N350" s="31"/>
       <c r="O350" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q350" s="40"/>
       <c r="R350" s="40"/>
@@ -17804,7 +17809,7 @@
       <c r="M351" s="21"/>
       <c r="N351" s="31"/>
       <c r="O351" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q351" s="40"/>
       <c r="R351" s="40"/>
@@ -17825,7 +17830,7 @@
       <c r="M352" s="21"/>
       <c r="N352" s="31"/>
       <c r="O352" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q352" s="40"/>
       <c r="R352" s="40"/>
@@ -17846,7 +17851,7 @@
       <c r="M353" s="21"/>
       <c r="N353" s="31"/>
       <c r="O353" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q353" s="40"/>
       <c r="R353" s="40"/>
@@ -17867,7 +17872,7 @@
       <c r="M354" s="21"/>
       <c r="N354" s="31"/>
       <c r="O354" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q354" s="40"/>
       <c r="R354" s="40"/>
@@ -17888,7 +17893,7 @@
       <c r="M355" s="21"/>
       <c r="N355" s="31"/>
       <c r="O355" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q355" s="40"/>
       <c r="R355" s="40"/>
@@ -17909,7 +17914,7 @@
       <c r="M356" s="21"/>
       <c r="N356" s="31"/>
       <c r="O356" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q356" s="40"/>
       <c r="R356" s="40"/>
@@ -17930,7 +17935,7 @@
       <c r="M357" s="21"/>
       <c r="N357" s="31"/>
       <c r="O357" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q357" s="40"/>
       <c r="R357" s="40"/>
@@ -17951,7 +17956,7 @@
       <c r="M358" s="21"/>
       <c r="N358" s="31"/>
       <c r="O358" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q358" s="40"/>
       <c r="R358" s="40"/>
@@ -17972,7 +17977,7 @@
       <c r="M359" s="21"/>
       <c r="N359" s="31"/>
       <c r="O359" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q359" s="40"/>
       <c r="R359" s="40"/>
@@ -17993,7 +17998,7 @@
       <c r="M360" s="21"/>
       <c r="N360" s="31"/>
       <c r="O360" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q360" s="40"/>
       <c r="R360" s="40"/>
@@ -18014,7 +18019,7 @@
       <c r="M361" s="21"/>
       <c r="N361" s="31"/>
       <c r="O361" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q361" s="40"/>
       <c r="R361" s="40"/>
@@ -18035,7 +18040,7 @@
       <c r="M362" s="21"/>
       <c r="N362" s="31"/>
       <c r="O362" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q362" s="40"/>
       <c r="R362" s="40"/>
@@ -18056,7 +18061,7 @@
       <c r="M363" s="21"/>
       <c r="N363" s="31"/>
       <c r="O363" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q363" s="40"/>
       <c r="R363" s="40"/>
@@ -18077,7 +18082,7 @@
       <c r="M364" s="21"/>
       <c r="N364" s="31"/>
       <c r="O364" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q364" s="40"/>
       <c r="R364" s="40"/>
@@ -18098,7 +18103,7 @@
       <c r="M365" s="21"/>
       <c r="N365" s="31"/>
       <c r="O365" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q365" s="40"/>
       <c r="R365" s="40"/>
@@ -18119,7 +18124,7 @@
       <c r="M366" s="21"/>
       <c r="N366" s="31"/>
       <c r="O366" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q366" s="40"/>
       <c r="R366" s="40"/>
@@ -18140,7 +18145,7 @@
       <c r="M367" s="21"/>
       <c r="N367" s="31"/>
       <c r="O367" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q367" s="40"/>
       <c r="R367" s="40"/>
@@ -18161,7 +18166,7 @@
       <c r="M368" s="21"/>
       <c r="N368" s="31"/>
       <c r="O368" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q368" s="40"/>
       <c r="R368" s="40"/>
@@ -18182,7 +18187,7 @@
       <c r="M369" s="21"/>
       <c r="N369" s="31"/>
       <c r="O369" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q369" s="40"/>
       <c r="R369" s="40"/>
@@ -18203,7 +18208,7 @@
       <c r="M370" s="21"/>
       <c r="N370" s="31"/>
       <c r="O370" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q370" s="40"/>
       <c r="R370" s="40"/>
@@ -18224,7 +18229,7 @@
       <c r="M371" s="21"/>
       <c r="N371" s="31"/>
       <c r="O371" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q371" s="40"/>
       <c r="R371" s="40"/>
@@ -18245,7 +18250,7 @@
       <c r="M372" s="21"/>
       <c r="N372" s="31"/>
       <c r="O372" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q372" s="40"/>
       <c r="R372" s="40"/>
@@ -18266,7 +18271,7 @@
       <c r="M373" s="21"/>
       <c r="N373" s="31"/>
       <c r="O373" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q373" s="40"/>
       <c r="R373" s="40"/>
@@ -18287,7 +18292,7 @@
       <c r="M374" s="21"/>
       <c r="N374" s="31"/>
       <c r="O374" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q374" s="40"/>
       <c r="R374" s="40"/>
@@ -18308,7 +18313,7 @@
       <c r="M375" s="21"/>
       <c r="N375" s="31"/>
       <c r="O375" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q375" s="40"/>
       <c r="R375" s="40"/>
@@ -18329,7 +18334,7 @@
       <c r="M376" s="21"/>
       <c r="N376" s="31"/>
       <c r="O376" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q376" s="40"/>
       <c r="R376" s="40"/>
@@ -18350,7 +18355,7 @@
       <c r="M377" s="21"/>
       <c r="N377" s="31"/>
       <c r="O377" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q377" s="40"/>
       <c r="R377" s="40"/>
@@ -18371,7 +18376,7 @@
       <c r="M378" s="21"/>
       <c r="N378" s="31"/>
       <c r="O378" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q378" s="40"/>
       <c r="R378" s="40"/>
@@ -18392,7 +18397,7 @@
       <c r="M379" s="21"/>
       <c r="N379" s="31"/>
       <c r="O379" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q379" s="40"/>
       <c r="R379" s="40"/>
@@ -18413,7 +18418,7 @@
       <c r="M380" s="21"/>
       <c r="N380" s="31"/>
       <c r="O380" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q380" s="40"/>
       <c r="R380" s="40"/>
@@ -18434,7 +18439,7 @@
       <c r="M381" s="21"/>
       <c r="N381" s="31"/>
       <c r="O381" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q381" s="40"/>
       <c r="R381" s="40"/>
@@ -18455,7 +18460,7 @@
       <c r="M382" s="21"/>
       <c r="N382" s="31"/>
       <c r="O382" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q382" s="40"/>
       <c r="R382" s="40"/>
@@ -18476,7 +18481,7 @@
       <c r="M383" s="21"/>
       <c r="N383" s="31"/>
       <c r="O383" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q383" s="40"/>
       <c r="R383" s="40"/>
@@ -18497,7 +18502,7 @@
       <c r="M384" s="21"/>
       <c r="N384" s="31"/>
       <c r="O384" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q384" s="40"/>
       <c r="R384" s="40"/>
@@ -18518,7 +18523,7 @@
       <c r="M385" s="21"/>
       <c r="N385" s="31"/>
       <c r="O385" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q385" s="40"/>
       <c r="R385" s="40"/>
@@ -18539,7 +18544,7 @@
       <c r="M386" s="21"/>
       <c r="N386" s="31"/>
       <c r="O386" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q386" s="40"/>
       <c r="R386" s="40"/>
@@ -18560,7 +18565,7 @@
       <c r="M387" s="21"/>
       <c r="N387" s="31"/>
       <c r="O387" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q387" s="40"/>
       <c r="R387" s="40"/>
@@ -18581,7 +18586,7 @@
       <c r="M388" s="21"/>
       <c r="N388" s="31"/>
       <c r="O388" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q388" s="40"/>
       <c r="R388" s="40"/>
@@ -18602,7 +18607,7 @@
       <c r="M389" s="21"/>
       <c r="N389" s="31"/>
       <c r="O389" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q389" s="40"/>
       <c r="R389" s="40"/>
@@ -18623,7 +18628,7 @@
       <c r="M390" s="21"/>
       <c r="N390" s="31"/>
       <c r="O390" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q390" s="40"/>
       <c r="R390" s="40"/>
@@ -18644,7 +18649,7 @@
       <c r="M391" s="21"/>
       <c r="N391" s="31"/>
       <c r="O391" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q391" s="40"/>
       <c r="R391" s="40"/>
@@ -18665,7 +18670,7 @@
       <c r="M392" s="21"/>
       <c r="N392" s="31"/>
       <c r="O392" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q392" s="40"/>
       <c r="R392" s="40"/>
@@ -18686,7 +18691,7 @@
       <c r="M393" s="21"/>
       <c r="N393" s="31"/>
       <c r="O393" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q393" s="40"/>
       <c r="R393" s="40"/>
@@ -18707,7 +18712,7 @@
       <c r="M394" s="21"/>
       <c r="N394" s="31"/>
       <c r="O394" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q394" s="40"/>
       <c r="R394" s="40"/>
@@ -18728,7 +18733,7 @@
       <c r="M395" s="21"/>
       <c r="N395" s="31"/>
       <c r="O395" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q395" s="40"/>
       <c r="R395" s="40"/>
@@ -18749,7 +18754,7 @@
       <c r="M396" s="21"/>
       <c r="N396" s="31"/>
       <c r="O396" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q396" s="40"/>
       <c r="R396" s="40"/>
@@ -18770,7 +18775,7 @@
       <c r="M397" s="21"/>
       <c r="N397" s="31"/>
       <c r="O397" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q397" s="40"/>
       <c r="R397" s="40"/>
@@ -18791,7 +18796,7 @@
       <c r="M398" s="21"/>
       <c r="N398" s="31"/>
       <c r="O398" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q398" s="40"/>
       <c r="R398" s="40"/>
@@ -18812,7 +18817,7 @@
       <c r="M399" s="21"/>
       <c r="N399" s="31"/>
       <c r="O399" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q399" s="40"/>
       <c r="R399" s="40"/>
@@ -18833,7 +18838,7 @@
       <c r="M400" s="21"/>
       <c r="N400" s="31"/>
       <c r="O400" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q400" s="40"/>
       <c r="R400" s="40"/>
@@ -18854,7 +18859,7 @@
       <c r="M401" s="21"/>
       <c r="N401" s="31"/>
       <c r="O401" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q401" s="40"/>
       <c r="R401" s="40"/>
@@ -18875,7 +18880,7 @@
       <c r="M402" s="21"/>
       <c r="N402" s="31"/>
       <c r="O402" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q402" s="40"/>
       <c r="R402" s="40"/>
@@ -18896,7 +18901,7 @@
       <c r="M403" s="21"/>
       <c r="N403" s="31"/>
       <c r="O403" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q403" s="40"/>
       <c r="R403" s="40"/>
@@ -18917,7 +18922,7 @@
       <c r="M404" s="21"/>
       <c r="N404" s="31"/>
       <c r="O404" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q404" s="40"/>
       <c r="R404" s="40"/>
@@ -18938,7 +18943,7 @@
       <c r="M405" s="21"/>
       <c r="N405" s="31"/>
       <c r="O405" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q405" s="40"/>
       <c r="R405" s="40"/>
@@ -18959,7 +18964,7 @@
       <c r="M406" s="21"/>
       <c r="N406" s="31"/>
       <c r="O406" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q406" s="40"/>
       <c r="R406" s="40"/>
@@ -18980,7 +18985,7 @@
       <c r="M407" s="21"/>
       <c r="N407" s="31"/>
       <c r="O407" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q407" s="40"/>
       <c r="R407" s="40"/>
@@ -19001,7 +19006,7 @@
       <c r="M408" s="21"/>
       <c r="N408" s="31"/>
       <c r="O408" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q408" s="40"/>
       <c r="R408" s="40"/>
@@ -19022,7 +19027,7 @@
       <c r="M409" s="21"/>
       <c r="N409" s="31"/>
       <c r="O409" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q409" s="40"/>
       <c r="R409" s="40"/>
@@ -19043,7 +19048,7 @@
       <c r="M410" s="21"/>
       <c r="N410" s="31"/>
       <c r="O410" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q410" s="40"/>
       <c r="R410" s="40"/>
@@ -19064,7 +19069,7 @@
       <c r="M411" s="21"/>
       <c r="N411" s="31"/>
       <c r="O411" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q411" s="40"/>
       <c r="R411" s="40"/>
@@ -19085,7 +19090,7 @@
       <c r="M412" s="21"/>
       <c r="N412" s="31"/>
       <c r="O412" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q412" s="40"/>
       <c r="R412" s="40"/>
@@ -19106,7 +19111,7 @@
       <c r="M413" s="21"/>
       <c r="N413" s="31"/>
       <c r="O413" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q413" s="40"/>
       <c r="R413" s="40"/>
@@ -19127,7 +19132,7 @@
       <c r="M414" s="21"/>
       <c r="N414" s="31"/>
       <c r="O414" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q414" s="40"/>
       <c r="R414" s="40"/>
@@ -19148,7 +19153,7 @@
       <c r="M415" s="21"/>
       <c r="N415" s="31"/>
       <c r="O415" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q415" s="40"/>
       <c r="R415" s="40"/>
@@ -19169,7 +19174,7 @@
       <c r="M416" s="21"/>
       <c r="N416" s="31"/>
       <c r="O416" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q416" s="40"/>
       <c r="R416" s="40"/>
@@ -19190,7 +19195,7 @@
       <c r="M417" s="21"/>
       <c r="N417" s="31"/>
       <c r="O417" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q417" s="40"/>
       <c r="R417" s="40"/>
@@ -19211,7 +19216,7 @@
       <c r="M418" s="21"/>
       <c r="N418" s="31"/>
       <c r="O418" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q418" s="40"/>
       <c r="R418" s="40"/>
@@ -19232,7 +19237,7 @@
       <c r="M419" s="21"/>
       <c r="N419" s="31"/>
       <c r="O419" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q419" s="40"/>
       <c r="R419" s="40"/>
@@ -19253,7 +19258,7 @@
       <c r="M420" s="21"/>
       <c r="N420" s="31"/>
       <c r="O420" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q420" s="40"/>
       <c r="R420" s="40"/>
@@ -19274,7 +19279,7 @@
       <c r="M421" s="21"/>
       <c r="N421" s="31"/>
       <c r="O421" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q421" s="40"/>
       <c r="R421" s="40"/>
@@ -19295,7 +19300,7 @@
       <c r="M422" s="21"/>
       <c r="N422" s="31"/>
       <c r="O422" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q422" s="40"/>
       <c r="R422" s="40"/>
@@ -19316,7 +19321,7 @@
       <c r="M423" s="21"/>
       <c r="N423" s="31"/>
       <c r="O423" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q423" s="40"/>
       <c r="R423" s="40"/>
@@ -19337,7 +19342,7 @@
       <c r="M424" s="21"/>
       <c r="N424" s="31"/>
       <c r="O424" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q424" s="40"/>
       <c r="R424" s="40"/>
@@ -19358,7 +19363,7 @@
       <c r="M425" s="21"/>
       <c r="N425" s="31"/>
       <c r="O425" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q425" s="40"/>
       <c r="R425" s="40"/>
@@ -19379,7 +19384,7 @@
       <c r="M426" s="21"/>
       <c r="N426" s="31"/>
       <c r="O426" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q426" s="40"/>
       <c r="R426" s="40"/>
@@ -19400,7 +19405,7 @@
       <c r="M427" s="21"/>
       <c r="N427" s="31"/>
       <c r="O427" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q427" s="40"/>
       <c r="R427" s="40"/>
@@ -19421,7 +19426,7 @@
       <c r="M428" s="21"/>
       <c r="N428" s="31"/>
       <c r="O428" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q428" s="40"/>
       <c r="R428" s="40"/>
@@ -19442,7 +19447,7 @@
       <c r="M429" s="21"/>
       <c r="N429" s="31"/>
       <c r="O429" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q429" s="40"/>
       <c r="R429" s="40"/>
@@ -19463,7 +19468,7 @@
       <c r="M430" s="21"/>
       <c r="N430" s="31"/>
       <c r="O430" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q430" s="40"/>
       <c r="R430" s="40"/>
@@ -19484,7 +19489,7 @@
       <c r="M431" s="21"/>
       <c r="N431" s="31"/>
       <c r="O431" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q431" s="40"/>
       <c r="R431" s="40"/>
@@ -19505,7 +19510,7 @@
       <c r="M432" s="21"/>
       <c r="N432" s="31"/>
       <c r="O432" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q432" s="40"/>
       <c r="R432" s="40"/>
@@ -19526,7 +19531,7 @@
       <c r="M433" s="21"/>
       <c r="N433" s="31"/>
       <c r="O433" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q433" s="40"/>
       <c r="R433" s="40"/>
@@ -19547,7 +19552,7 @@
       <c r="M434" s="21"/>
       <c r="N434" s="31"/>
       <c r="O434" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q434" s="40"/>
       <c r="R434" s="40"/>
@@ -19568,7 +19573,7 @@
       <c r="M435" s="21"/>
       <c r="N435" s="31"/>
       <c r="O435" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q435" s="40"/>
       <c r="R435" s="40"/>
@@ -19589,7 +19594,7 @@
       <c r="M436" s="21"/>
       <c r="N436" s="31"/>
       <c r="O436" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q436" s="40"/>
       <c r="R436" s="40"/>
@@ -19610,7 +19615,7 @@
       <c r="M437" s="21"/>
       <c r="N437" s="31"/>
       <c r="O437" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q437" s="40"/>
       <c r="R437" s="40"/>
@@ -19631,7 +19636,7 @@
       <c r="M438" s="21"/>
       <c r="N438" s="31"/>
       <c r="O438" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q438" s="40"/>
       <c r="R438" s="40"/>
@@ -19652,7 +19657,7 @@
       <c r="M439" s="21"/>
       <c r="N439" s="31"/>
       <c r="O439" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q439" s="40"/>
       <c r="R439" s="40"/>
@@ -19673,7 +19678,7 @@
       <c r="M440" s="21"/>
       <c r="N440" s="31"/>
       <c r="O440" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q440" s="40"/>
       <c r="R440" s="40"/>
@@ -19694,7 +19699,7 @@
       <c r="M441" s="21"/>
       <c r="N441" s="31"/>
       <c r="O441" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q441" s="40"/>
       <c r="R441" s="40"/>
@@ -19715,7 +19720,7 @@
       <c r="M442" s="21"/>
       <c r="N442" s="31"/>
       <c r="O442" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q442" s="40"/>
       <c r="R442" s="40"/>
@@ -19736,7 +19741,7 @@
       <c r="M443" s="21"/>
       <c r="N443" s="31"/>
       <c r="O443" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q443" s="40"/>
       <c r="R443" s="40"/>
@@ -19757,7 +19762,7 @@
       <c r="M444" s="21"/>
       <c r="N444" s="31"/>
       <c r="O444" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q444" s="40"/>
       <c r="R444" s="40"/>
@@ -19778,7 +19783,7 @@
       <c r="M445" s="21"/>
       <c r="N445" s="31"/>
       <c r="O445" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q445" s="40"/>
       <c r="R445" s="40"/>
@@ -19799,7 +19804,7 @@
       <c r="M446" s="21"/>
       <c r="N446" s="31"/>
       <c r="O446" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q446" s="40"/>
       <c r="R446" s="40"/>
@@ -19820,7 +19825,7 @@
       <c r="M447" s="21"/>
       <c r="N447" s="31"/>
       <c r="O447" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q447" s="40"/>
       <c r="R447" s="40"/>
@@ -19841,7 +19846,7 @@
       <c r="M448" s="21"/>
       <c r="N448" s="31"/>
       <c r="O448" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q448" s="40"/>
       <c r="R448" s="40"/>
@@ -19862,7 +19867,7 @@
       <c r="M449" s="21"/>
       <c r="N449" s="31"/>
       <c r="O449" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q449" s="40"/>
       <c r="R449" s="40"/>
@@ -19883,7 +19888,7 @@
       <c r="M450" s="21"/>
       <c r="N450" s="31"/>
       <c r="O450" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q450" s="40"/>
       <c r="R450" s="40"/>
@@ -19904,7 +19909,7 @@
       <c r="M451" s="21"/>
       <c r="N451" s="31"/>
       <c r="O451" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q451" s="40"/>
       <c r="R451" s="40"/>
@@ -19925,7 +19930,7 @@
       <c r="M452" s="21"/>
       <c r="N452" s="31"/>
       <c r="O452" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q452" s="40"/>
       <c r="R452" s="40"/>
@@ -19946,7 +19951,7 @@
       <c r="M453" s="21"/>
       <c r="N453" s="31"/>
       <c r="O453" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q453" s="40"/>
       <c r="R453" s="40"/>
@@ -19967,7 +19972,7 @@
       <c r="M454" s="21"/>
       <c r="N454" s="31"/>
       <c r="O454" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q454" s="40"/>
       <c r="R454" s="40"/>
@@ -19988,7 +19993,7 @@
       <c r="M455" s="21"/>
       <c r="N455" s="31"/>
       <c r="O455" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q455" s="40"/>
       <c r="R455" s="40"/>
@@ -20009,7 +20014,7 @@
       <c r="M456" s="21"/>
       <c r="N456" s="31"/>
       <c r="O456" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q456" s="40"/>
       <c r="R456" s="40"/>
@@ -20030,7 +20035,7 @@
       <c r="M457" s="21"/>
       <c r="N457" s="31"/>
       <c r="O457" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q457" s="40"/>
       <c r="R457" s="40"/>
@@ -20051,7 +20056,7 @@
       <c r="M458" s="21"/>
       <c r="N458" s="31"/>
       <c r="O458" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q458" s="40"/>
       <c r="R458" s="40"/>
@@ -20072,7 +20077,7 @@
       <c r="M459" s="21"/>
       <c r="N459" s="31"/>
       <c r="O459" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q459" s="40"/>
       <c r="R459" s="40"/>
@@ -20093,7 +20098,7 @@
       <c r="M460" s="21"/>
       <c r="N460" s="31"/>
       <c r="O460" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q460" s="40"/>
       <c r="R460" s="40"/>
@@ -20114,7 +20119,7 @@
       <c r="M461" s="21"/>
       <c r="N461" s="31"/>
       <c r="O461" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q461" s="40"/>
       <c r="R461" s="40"/>
@@ -20135,7 +20140,7 @@
       <c r="M462" s="21"/>
       <c r="N462" s="31"/>
       <c r="O462" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q462" s="40"/>
       <c r="R462" s="40"/>
@@ -20156,7 +20161,7 @@
       <c r="M463" s="21"/>
       <c r="N463" s="31"/>
       <c r="O463" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q463" s="40"/>
       <c r="R463" s="40"/>
@@ -20177,7 +20182,7 @@
       <c r="M464" s="21"/>
       <c r="N464" s="31"/>
       <c r="O464" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q464" s="40"/>
       <c r="R464" s="40"/>
@@ -20198,7 +20203,7 @@
       <c r="M465" s="21"/>
       <c r="N465" s="31"/>
       <c r="O465" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q465" s="40"/>
       <c r="R465" s="40"/>
@@ -20219,7 +20224,7 @@
       <c r="M466" s="21"/>
       <c r="N466" s="31"/>
       <c r="O466" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q466" s="40"/>
       <c r="R466" s="40"/>
@@ -20240,7 +20245,7 @@
       <c r="M467" s="21"/>
       <c r="N467" s="31"/>
       <c r="O467" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q467" s="40"/>
       <c r="R467" s="40"/>
@@ -20261,7 +20266,7 @@
       <c r="M468" s="21"/>
       <c r="N468" s="31"/>
       <c r="O468" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q468" s="40"/>
       <c r="R468" s="40"/>
@@ -20282,7 +20287,7 @@
       <c r="M469" s="21"/>
       <c r="N469" s="31"/>
       <c r="O469" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q469" s="40"/>
       <c r="R469" s="40"/>
@@ -20303,7 +20308,7 @@
       <c r="M470" s="21"/>
       <c r="N470" s="31"/>
       <c r="O470" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q470" s="40"/>
       <c r="R470" s="40"/>
@@ -20324,7 +20329,7 @@
       <c r="M471" s="21"/>
       <c r="N471" s="31"/>
       <c r="O471" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q471" s="40"/>
       <c r="R471" s="40"/>
@@ -20345,7 +20350,7 @@
       <c r="M472" s="21"/>
       <c r="N472" s="31"/>
       <c r="O472" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q472" s="40"/>
       <c r="R472" s="40"/>
@@ -20366,7 +20371,7 @@
       <c r="M473" s="21"/>
       <c r="N473" s="31"/>
       <c r="O473" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q473" s="40"/>
       <c r="R473" s="40"/>
@@ -20387,7 +20392,7 @@
       <c r="M474" s="21"/>
       <c r="N474" s="31"/>
       <c r="O474" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q474" s="40"/>
       <c r="R474" s="40"/>
@@ -20408,7 +20413,7 @@
       <c r="M475" s="21"/>
       <c r="N475" s="31"/>
       <c r="O475" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q475" s="40"/>
       <c r="R475" s="40"/>
@@ -20429,7 +20434,7 @@
       <c r="M476" s="21"/>
       <c r="N476" s="31"/>
       <c r="O476" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q476" s="40"/>
       <c r="R476" s="40"/>
@@ -20450,7 +20455,7 @@
       <c r="M477" s="21"/>
       <c r="N477" s="31"/>
       <c r="O477" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q477" s="40"/>
       <c r="R477" s="40"/>
@@ -20471,7 +20476,7 @@
       <c r="M478" s="21"/>
       <c r="N478" s="31"/>
       <c r="O478" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q478" s="40"/>
       <c r="R478" s="40"/>
@@ -20492,7 +20497,7 @@
       <c r="M479" s="21"/>
       <c r="N479" s="31"/>
       <c r="O479" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q479" s="40"/>
       <c r="R479" s="40"/>
@@ -20513,7 +20518,7 @@
       <c r="M480" s="21"/>
       <c r="N480" s="31"/>
       <c r="O480" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q480" s="40"/>
       <c r="R480" s="40"/>
@@ -20534,7 +20539,7 @@
       <c r="M481" s="21"/>
       <c r="N481" s="31"/>
       <c r="O481" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q481" s="40"/>
       <c r="R481" s="40"/>
@@ -20555,7 +20560,7 @@
       <c r="M482" s="21"/>
       <c r="N482" s="31"/>
       <c r="O482" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q482" s="40"/>
       <c r="R482" s="40"/>
@@ -20576,7 +20581,7 @@
       <c r="M483" s="21"/>
       <c r="N483" s="31"/>
       <c r="O483" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q483" s="40"/>
       <c r="R483" s="40"/>
@@ -20597,7 +20602,7 @@
       <c r="M484" s="21"/>
       <c r="N484" s="31"/>
       <c r="O484" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q484" s="40"/>
       <c r="R484" s="40"/>
@@ -20618,7 +20623,7 @@
       <c r="M485" s="21"/>
       <c r="N485" s="31"/>
       <c r="O485" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q485" s="40"/>
       <c r="R485" s="40"/>
@@ -20639,7 +20644,7 @@
       <c r="M486" s="21"/>
       <c r="N486" s="31"/>
       <c r="O486" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q486" s="40"/>
       <c r="R486" s="40"/>
@@ -20660,7 +20665,7 @@
       <c r="M487" s="21"/>
       <c r="N487" s="31"/>
       <c r="O487" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q487" s="40"/>
       <c r="R487" s="40"/>
@@ -20681,7 +20686,7 @@
       <c r="M488" s="21"/>
       <c r="N488" s="31"/>
       <c r="O488" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q488" s="40"/>
       <c r="R488" s="40"/>
@@ -20702,7 +20707,7 @@
       <c r="M489" s="21"/>
       <c r="N489" s="31"/>
       <c r="O489" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q489" s="40"/>
       <c r="R489" s="40"/>
@@ -20723,7 +20728,7 @@
       <c r="M490" s="21"/>
       <c r="N490" s="31"/>
       <c r="O490" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q490" s="40"/>
       <c r="R490" s="40"/>
@@ -20744,7 +20749,7 @@
       <c r="M491" s="21"/>
       <c r="N491" s="31"/>
       <c r="O491" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q491" s="40"/>
       <c r="R491" s="40"/>
@@ -20765,7 +20770,7 @@
       <c r="M492" s="21"/>
       <c r="N492" s="31"/>
       <c r="O492" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q492" s="40"/>
       <c r="R492" s="40"/>
@@ -20786,7 +20791,7 @@
       <c r="M493" s="21"/>
       <c r="N493" s="31"/>
       <c r="O493" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q493" s="40"/>
       <c r="R493" s="40"/>
@@ -20807,7 +20812,7 @@
       <c r="M494" s="21"/>
       <c r="N494" s="31"/>
       <c r="O494" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q494" s="40"/>
       <c r="R494" s="40"/>
@@ -20828,7 +20833,7 @@
       <c r="M495" s="21"/>
       <c r="N495" s="31"/>
       <c r="O495" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q495" s="40"/>
       <c r="R495" s="40"/>
@@ -20849,7 +20854,7 @@
       <c r="M496" s="21"/>
       <c r="N496" s="31"/>
       <c r="O496" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q496" s="40"/>
       <c r="R496" s="40"/>
@@ -20870,7 +20875,7 @@
       <c r="M497" s="21"/>
       <c r="N497" s="31"/>
       <c r="O497" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q497" s="40"/>
       <c r="R497" s="40"/>
@@ -20891,7 +20896,7 @@
       <c r="M498" s="21"/>
       <c r="N498" s="31"/>
       <c r="O498" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q498" s="40"/>
       <c r="R498" s="40"/>
@@ -20912,7 +20917,7 @@
       <c r="M499" s="21"/>
       <c r="N499" s="31"/>
       <c r="O499" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q499" s="40"/>
       <c r="R499" s="40"/>
@@ -20933,7 +20938,7 @@
       <c r="M500" s="21"/>
       <c r="N500" s="31"/>
       <c r="O500" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q500" s="40"/>
       <c r="R500" s="40"/>
@@ -20954,7 +20959,7 @@
       <c r="M501" s="21"/>
       <c r="N501" s="31"/>
       <c r="O501" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q501" s="40"/>
       <c r="R501" s="40"/>
@@ -20975,7 +20980,7 @@
       <c r="M502" s="21"/>
       <c r="N502" s="31"/>
       <c r="O502" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q502" s="40"/>
       <c r="R502" s="40"/>
@@ -20996,7 +21001,7 @@
       <c r="M503" s="21"/>
       <c r="N503" s="31"/>
       <c r="O503" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q503" s="40"/>
       <c r="R503" s="40"/>
@@ -21017,7 +21022,7 @@
       <c r="M504" s="21"/>
       <c r="N504" s="31"/>
       <c r="O504" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q504" s="40"/>
       <c r="R504" s="40"/>
@@ -21038,7 +21043,7 @@
       <c r="M505" s="21"/>
       <c r="N505" s="31"/>
       <c r="O505" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q505" s="40"/>
       <c r="R505" s="40"/>
@@ -21059,7 +21064,7 @@
       <c r="M506" s="21"/>
       <c r="N506" s="31"/>
       <c r="O506" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q506" s="40"/>
       <c r="R506" s="40"/>
@@ -21080,7 +21085,7 @@
       <c r="M507" s="21"/>
       <c r="N507" s="31"/>
       <c r="O507" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q507" s="40"/>
       <c r="R507" s="40"/>
@@ -21101,7 +21106,7 @@
       <c r="M508" s="21"/>
       <c r="N508" s="31"/>
       <c r="O508" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q508" s="40"/>
       <c r="R508" s="40"/>
@@ -21122,7 +21127,7 @@
       <c r="M509" s="21"/>
       <c r="N509" s="31"/>
       <c r="O509" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q509" s="40"/>
       <c r="R509" s="40"/>
@@ -21143,7 +21148,7 @@
       <c r="M510" s="21"/>
       <c r="N510" s="31"/>
       <c r="O510" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q510" s="40"/>
       <c r="R510" s="40"/>
@@ -21164,7 +21169,7 @@
       <c r="M511" s="21"/>
       <c r="N511" s="31"/>
       <c r="O511" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q511" s="40"/>
       <c r="R511" s="40"/>
@@ -21185,7 +21190,7 @@
       <c r="M512" s="21"/>
       <c r="N512" s="31"/>
       <c r="O512" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q512" s="40"/>
       <c r="R512" s="40"/>
@@ -21206,7 +21211,7 @@
       <c r="M513" s="21"/>
       <c r="N513" s="31"/>
       <c r="O513" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q513" s="40"/>
       <c r="R513" s="40"/>
@@ -21227,7 +21232,7 @@
       <c r="M514" s="21"/>
       <c r="N514" s="31"/>
       <c r="O514" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q514" s="40"/>
       <c r="R514" s="40"/>
@@ -21248,7 +21253,7 @@
       <c r="M515" s="21"/>
       <c r="N515" s="31"/>
       <c r="O515" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q515" s="40"/>
       <c r="R515" s="40"/>
@@ -21269,7 +21274,7 @@
       <c r="M516" s="21"/>
       <c r="N516" s="31"/>
       <c r="O516" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q516" s="40"/>
       <c r="R516" s="40"/>
@@ -21290,7 +21295,7 @@
       <c r="M517" s="21"/>
       <c r="N517" s="31"/>
       <c r="O517" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q517" s="40"/>
       <c r="R517" s="40"/>
@@ -21311,7 +21316,7 @@
       <c r="M518" s="21"/>
       <c r="N518" s="31"/>
       <c r="O518" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q518" s="40"/>
       <c r="R518" s="40"/>
@@ -21332,7 +21337,7 @@
       <c r="M519" s="21"/>
       <c r="N519" s="31"/>
       <c r="O519" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q519" s="40"/>
       <c r="R519" s="40"/>
@@ -21353,7 +21358,7 @@
       <c r="M520" s="21"/>
       <c r="N520" s="31"/>
       <c r="O520" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q520" s="40"/>
       <c r="R520" s="40"/>
@@ -21374,7 +21379,7 @@
       <c r="M521" s="21"/>
       <c r="N521" s="31"/>
       <c r="O521" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q521" s="40"/>
       <c r="R521" s="40"/>
@@ -21395,7 +21400,7 @@
       <c r="M522" s="21"/>
       <c r="N522" s="31"/>
       <c r="O522" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q522" s="40"/>
       <c r="R522" s="40"/>
@@ -21416,7 +21421,7 @@
       <c r="M523" s="21"/>
       <c r="N523" s="31"/>
       <c r="O523" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q523" s="40"/>
       <c r="R523" s="40"/>
@@ -21437,7 +21442,7 @@
       <c r="M524" s="21"/>
       <c r="N524" s="31"/>
       <c r="O524" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q524" s="40"/>
       <c r="R524" s="40"/>
@@ -21458,7 +21463,7 @@
       <c r="M525" s="21"/>
       <c r="N525" s="31"/>
       <c r="O525" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q525" s="40"/>
       <c r="R525" s="40"/>
@@ -21479,7 +21484,7 @@
       <c r="M526" s="21"/>
       <c r="N526" s="31"/>
       <c r="O526" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q526" s="40"/>
       <c r="R526" s="40"/>
@@ -21500,7 +21505,7 @@
       <c r="M527" s="21"/>
       <c r="N527" s="31"/>
       <c r="O527" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q527" s="40"/>
       <c r="R527" s="40"/>
@@ -21521,7 +21526,7 @@
       <c r="M528" s="21"/>
       <c r="N528" s="31"/>
       <c r="O528" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q528" s="40"/>
       <c r="R528" s="40"/>
@@ -21542,7 +21547,7 @@
       <c r="M529" s="21"/>
       <c r="N529" s="31"/>
       <c r="O529" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q529" s="40"/>
       <c r="R529" s="40"/>
@@ -21563,7 +21568,7 @@
       <c r="M530" s="21"/>
       <c r="N530" s="31"/>
       <c r="O530" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q530" s="40"/>
       <c r="R530" s="40"/>
@@ -21584,7 +21589,7 @@
       <c r="M531" s="21"/>
       <c r="N531" s="31"/>
       <c r="O531" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q531" s="40"/>
       <c r="R531" s="40"/>
@@ -21605,7 +21610,7 @@
       <c r="M532" s="21"/>
       <c r="N532" s="31"/>
       <c r="O532" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q532" s="40"/>
       <c r="R532" s="40"/>
@@ -21626,7 +21631,7 @@
       <c r="M533" s="21"/>
       <c r="N533" s="31"/>
       <c r="O533" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q533" s="40"/>
       <c r="R533" s="40"/>
@@ -21647,7 +21652,7 @@
       <c r="M534" s="21"/>
       <c r="N534" s="31"/>
       <c r="O534" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q534" s="40"/>
       <c r="R534" s="40"/>
@@ -21668,7 +21673,7 @@
       <c r="M535" s="21"/>
       <c r="N535" s="31"/>
       <c r="O535" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q535" s="40"/>
       <c r="R535" s="40"/>
@@ -21689,7 +21694,7 @@
       <c r="M536" s="21"/>
       <c r="N536" s="31"/>
       <c r="O536" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q536" s="40"/>
       <c r="R536" s="40"/>
@@ -21710,7 +21715,7 @@
       <c r="M537" s="21"/>
       <c r="N537" s="31"/>
       <c r="O537" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q537" s="40"/>
       <c r="R537" s="40"/>
@@ -21731,7 +21736,7 @@
       <c r="M538" s="21"/>
       <c r="N538" s="31"/>
       <c r="O538" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q538" s="40"/>
       <c r="R538" s="40"/>
@@ -21752,7 +21757,7 @@
       <c r="M539" s="21"/>
       <c r="N539" s="31"/>
       <c r="O539" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q539" s="40"/>
       <c r="R539" s="40"/>
@@ -21773,7 +21778,7 @@
       <c r="M540" s="21"/>
       <c r="N540" s="31"/>
       <c r="O540" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q540" s="40"/>
       <c r="R540" s="40"/>
@@ -21794,7 +21799,7 @@
       <c r="M541" s="21"/>
       <c r="N541" s="31"/>
       <c r="O541" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q541" s="40"/>
       <c r="R541" s="40"/>
@@ -21815,7 +21820,7 @@
       <c r="M542" s="21"/>
       <c r="N542" s="31"/>
       <c r="O542" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q542" s="40"/>
       <c r="R542" s="40"/>
@@ -21836,7 +21841,7 @@
       <c r="M543" s="21"/>
       <c r="N543" s="31"/>
       <c r="O543" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q543" s="40"/>
       <c r="R543" s="40"/>
@@ -21857,7 +21862,7 @@
       <c r="M544" s="21"/>
       <c r="N544" s="31"/>
       <c r="O544" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q544" s="40"/>
       <c r="R544" s="40"/>
@@ -21878,7 +21883,7 @@
       <c r="M545" s="21"/>
       <c r="N545" s="31"/>
       <c r="O545" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q545" s="40"/>
       <c r="R545" s="40"/>
@@ -21899,7 +21904,7 @@
       <c r="M546" s="21"/>
       <c r="N546" s="31"/>
       <c r="O546" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q546" s="40"/>
       <c r="R546" s="40"/>
@@ -21920,7 +21925,7 @@
       <c r="M547" s="21"/>
       <c r="N547" s="31"/>
       <c r="O547" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q547" s="40"/>
       <c r="R547" s="40"/>
@@ -21941,7 +21946,7 @@
       <c r="M548" s="21"/>
       <c r="N548" s="31"/>
       <c r="O548" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q548" s="40"/>
       <c r="R548" s="40"/>
@@ -21962,7 +21967,7 @@
       <c r="M549" s="21"/>
       <c r="N549" s="31"/>
       <c r="O549" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q549" s="40"/>
       <c r="R549" s="40"/>
@@ -21983,7 +21988,7 @@
       <c r="M550" s="21"/>
       <c r="N550" s="31"/>
       <c r="O550" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q550" s="40"/>
       <c r="R550" s="40"/>
@@ -22004,7 +22009,7 @@
       <c r="M551" s="21"/>
       <c r="N551" s="31"/>
       <c r="O551" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q551" s="40"/>
       <c r="R551" s="40"/>
@@ -22025,7 +22030,7 @@
       <c r="M552" s="21"/>
       <c r="N552" s="31"/>
       <c r="O552" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q552" s="40"/>
       <c r="R552" s="40"/>
@@ -22046,7 +22051,7 @@
       <c r="M553" s="21"/>
       <c r="N553" s="31"/>
       <c r="O553" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q553" s="40"/>
       <c r="R553" s="40"/>
@@ -22067,7 +22072,7 @@
       <c r="M554" s="21"/>
       <c r="N554" s="31"/>
       <c r="O554" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q554" s="40"/>
       <c r="R554" s="40"/>
@@ -22088,7 +22093,7 @@
       <c r="M555" s="21"/>
       <c r="N555" s="31"/>
       <c r="O555" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q555" s="40"/>
       <c r="R555" s="40"/>
@@ -22109,7 +22114,7 @@
       <c r="M556" s="21"/>
       <c r="N556" s="31"/>
       <c r="O556" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q556" s="40"/>
       <c r="R556" s="40"/>
@@ -22130,7 +22135,7 @@
       <c r="M557" s="21"/>
       <c r="N557" s="31"/>
       <c r="O557" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q557" s="40"/>
       <c r="R557" s="40"/>
@@ -22151,7 +22156,7 @@
       <c r="M558" s="21"/>
       <c r="N558" s="31"/>
       <c r="O558" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q558" s="40"/>
       <c r="R558" s="40"/>
@@ -22172,7 +22177,7 @@
       <c r="M559" s="21"/>
       <c r="N559" s="31"/>
       <c r="O559" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q559" s="40"/>
       <c r="R559" s="40"/>
@@ -22193,7 +22198,7 @@
       <c r="M560" s="21"/>
       <c r="N560" s="31"/>
       <c r="O560" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q560" s="40"/>
       <c r="R560" s="40"/>
@@ -22214,7 +22219,7 @@
       <c r="M561" s="21"/>
       <c r="N561" s="31"/>
       <c r="O561" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q561" s="40"/>
       <c r="R561" s="40"/>
@@ -22235,7 +22240,7 @@
       <c r="M562" s="21"/>
       <c r="N562" s="31"/>
       <c r="O562" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q562" s="40"/>
       <c r="R562" s="40"/>
@@ -22256,7 +22261,7 @@
       <c r="M563" s="21"/>
       <c r="N563" s="31"/>
       <c r="O563" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q563" s="40"/>
       <c r="R563" s="40"/>
@@ -22277,7 +22282,7 @@
       <c r="M564" s="21"/>
       <c r="N564" s="31"/>
       <c r="O564" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q564" s="40"/>
       <c r="R564" s="40"/>
@@ -22298,7 +22303,7 @@
       <c r="M565" s="21"/>
       <c r="N565" s="31"/>
       <c r="O565" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q565" s="40"/>
       <c r="R565" s="40"/>
@@ -22319,7 +22324,7 @@
       <c r="M566" s="21"/>
       <c r="N566" s="31"/>
       <c r="O566" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q566" s="40"/>
       <c r="R566" s="40"/>
@@ -22340,7 +22345,7 @@
       <c r="M567" s="21"/>
       <c r="N567" s="31"/>
       <c r="O567" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q567" s="40"/>
       <c r="R567" s="40"/>
@@ -22361,7 +22366,7 @@
       <c r="M568" s="21"/>
       <c r="N568" s="31"/>
       <c r="O568" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q568" s="40"/>
       <c r="R568" s="40"/>
@@ -22382,7 +22387,7 @@
       <c r="M569" s="21"/>
       <c r="N569" s="31"/>
       <c r="O569" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q569" s="40"/>
       <c r="R569" s="40"/>
@@ -22403,7 +22408,7 @@
       <c r="M570" s="21"/>
       <c r="N570" s="31"/>
       <c r="O570" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q570" s="40"/>
       <c r="R570" s="40"/>
@@ -22424,7 +22429,7 @@
       <c r="M571" s="21"/>
       <c r="N571" s="31"/>
       <c r="O571" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q571" s="40"/>
       <c r="R571" s="40"/>
@@ -22445,7 +22450,7 @@
       <c r="M572" s="21"/>
       <c r="N572" s="31"/>
       <c r="O572" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q572" s="40"/>
       <c r="R572" s="40"/>
@@ -22466,7 +22471,7 @@
       <c r="M573" s="21"/>
       <c r="N573" s="31"/>
       <c r="O573" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q573" s="40"/>
       <c r="R573" s="40"/>
@@ -22487,7 +22492,7 @@
       <c r="M574" s="21"/>
       <c r="N574" s="31"/>
       <c r="O574" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q574" s="40"/>
       <c r="R574" s="40"/>
@@ -22508,7 +22513,7 @@
       <c r="M575" s="21"/>
       <c r="N575" s="31"/>
       <c r="O575" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q575" s="40"/>
       <c r="R575" s="40"/>
@@ -22529,7 +22534,7 @@
       <c r="M576" s="21"/>
       <c r="N576" s="31"/>
       <c r="O576" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q576" s="40"/>
       <c r="R576" s="40"/>
@@ -22550,7 +22555,7 @@
       <c r="M577" s="21"/>
       <c r="N577" s="31"/>
       <c r="O577" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q577" s="40"/>
       <c r="R577" s="40"/>
@@ -22571,7 +22576,7 @@
       <c r="M578" s="21"/>
       <c r="N578" s="31"/>
       <c r="O578" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q578" s="40"/>
       <c r="R578" s="40"/>
@@ -22592,7 +22597,7 @@
       <c r="M579" s="21"/>
       <c r="N579" s="31"/>
       <c r="O579" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q579" s="40"/>
       <c r="R579" s="40"/>
@@ -22613,7 +22618,7 @@
       <c r="M580" s="21"/>
       <c r="N580" s="31"/>
       <c r="O580" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q580" s="40"/>
       <c r="R580" s="40"/>
@@ -22634,7 +22639,7 @@
       <c r="M581" s="21"/>
       <c r="N581" s="31"/>
       <c r="O581" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q581" s="40"/>
       <c r="R581" s="40"/>
@@ -22655,7 +22660,7 @@
       <c r="M582" s="21"/>
       <c r="N582" s="31"/>
       <c r="O582" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q582" s="40"/>
       <c r="R582" s="40"/>
@@ -22676,7 +22681,7 @@
       <c r="M583" s="21"/>
       <c r="N583" s="31"/>
       <c r="O583" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q583" s="40"/>
       <c r="R583" s="40"/>
@@ -22697,7 +22702,7 @@
       <c r="M584" s="21"/>
       <c r="N584" s="31"/>
       <c r="O584" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q584" s="40"/>
       <c r="R584" s="40"/>
@@ -22718,7 +22723,7 @@
       <c r="M585" s="21"/>
       <c r="N585" s="31"/>
       <c r="O585" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q585" s="40"/>
       <c r="R585" s="40"/>
@@ -22739,7 +22744,7 @@
       <c r="M586" s="21"/>
       <c r="N586" s="31"/>
       <c r="O586" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q586" s="40"/>
       <c r="R586" s="40"/>
@@ -22760,7 +22765,7 @@
       <c r="M587" s="21"/>
       <c r="N587" s="31"/>
       <c r="O587" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q587" s="40"/>
       <c r="R587" s="40"/>
@@ -22781,7 +22786,7 @@
       <c r="M588" s="21"/>
       <c r="N588" s="31"/>
       <c r="O588" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q588" s="40"/>
       <c r="R588" s="40"/>
@@ -22802,7 +22807,7 @@
       <c r="M589" s="21"/>
       <c r="N589" s="31"/>
       <c r="O589" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q589" s="40"/>
       <c r="R589" s="40"/>
@@ -22823,7 +22828,7 @@
       <c r="M590" s="21"/>
       <c r="N590" s="31"/>
       <c r="O590" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q590" s="40"/>
       <c r="R590" s="40"/>
@@ -22844,7 +22849,7 @@
       <c r="M591" s="21"/>
       <c r="N591" s="31"/>
       <c r="O591" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q591" s="40"/>
       <c r="R591" s="40"/>
@@ -22865,7 +22870,7 @@
       <c r="M592" s="21"/>
       <c r="N592" s="31"/>
       <c r="O592" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q592" s="40"/>
       <c r="R592" s="40"/>
@@ -22886,7 +22891,7 @@
       <c r="M593" s="21"/>
       <c r="N593" s="31"/>
       <c r="O593" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q593" s="40"/>
       <c r="R593" s="40"/>
@@ -22907,7 +22912,7 @@
       <c r="M594" s="21"/>
       <c r="N594" s="31"/>
       <c r="O594" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q594" s="40"/>
       <c r="R594" s="40"/>
@@ -22928,7 +22933,7 @@
       <c r="M595" s="21"/>
       <c r="N595" s="31"/>
       <c r="O595" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q595" s="40"/>
       <c r="R595" s="40"/>
@@ -22949,7 +22954,7 @@
       <c r="M596" s="21"/>
       <c r="N596" s="31"/>
       <c r="O596" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q596" s="40"/>
       <c r="R596" s="40"/>
@@ -22970,7 +22975,7 @@
       <c r="M597" s="21"/>
       <c r="N597" s="31"/>
       <c r="O597" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q597" s="40"/>
       <c r="R597" s="40"/>
@@ -22991,7 +22996,7 @@
       <c r="M598" s="21"/>
       <c r="N598" s="31"/>
       <c r="O598" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q598" s="40"/>
       <c r="R598" s="40"/>
@@ -23012,7 +23017,7 @@
       <c r="M599" s="21"/>
       <c r="N599" s="31"/>
       <c r="O599" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q599" s="40"/>
       <c r="R599" s="40"/>
@@ -23033,7 +23038,7 @@
       <c r="M600" s="21"/>
       <c r="N600" s="31"/>
       <c r="O600" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q600" s="40"/>
       <c r="R600" s="40"/>
@@ -23054,7 +23059,7 @@
       <c r="M601" s="21"/>
       <c r="N601" s="31"/>
       <c r="O601" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q601" s="40"/>
       <c r="R601" s="40"/>
@@ -23075,7 +23080,7 @@
       <c r="M602" s="21"/>
       <c r="N602" s="31"/>
       <c r="O602" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q602" s="40"/>
       <c r="R602" s="40"/>
@@ -23096,7 +23101,7 @@
       <c r="M603" s="21"/>
       <c r="N603" s="31"/>
       <c r="O603" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q603" s="40"/>
       <c r="R603" s="40"/>
@@ -23117,7 +23122,7 @@
       <c r="M604" s="21"/>
       <c r="N604" s="31"/>
       <c r="O604" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q604" s="40"/>
       <c r="R604" s="40"/>
@@ -23138,7 +23143,7 @@
       <c r="M605" s="21"/>
       <c r="N605" s="31"/>
       <c r="O605" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q605" s="40"/>
       <c r="R605" s="40"/>
@@ -23159,7 +23164,7 @@
       <c r="M606" s="21"/>
       <c r="N606" s="31"/>
       <c r="O606" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q606" s="40"/>
       <c r="R606" s="40"/>
@@ -23180,7 +23185,7 @@
       <c r="M607" s="21"/>
       <c r="N607" s="31"/>
       <c r="O607" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q607" s="40"/>
       <c r="R607" s="40"/>
@@ -23201,7 +23206,7 @@
       <c r="M608" s="21"/>
       <c r="N608" s="31"/>
       <c r="O608" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q608" s="40"/>
       <c r="R608" s="40"/>
@@ -23222,7 +23227,7 @@
       <c r="M609" s="21"/>
       <c r="N609" s="31"/>
       <c r="O609" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q609" s="40"/>
       <c r="R609" s="40"/>
@@ -23243,7 +23248,7 @@
       <c r="M610" s="21"/>
       <c r="N610" s="31"/>
       <c r="O610" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q610" s="40"/>
       <c r="R610" s="40"/>
@@ -23264,7 +23269,7 @@
       <c r="M611" s="21"/>
       <c r="N611" s="31"/>
       <c r="O611" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q611" s="40"/>
       <c r="R611" s="40"/>
@@ -23285,7 +23290,7 @@
       <c r="M612" s="21"/>
       <c r="N612" s="31"/>
       <c r="O612" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q612" s="40"/>
       <c r="R612" s="40"/>
@@ -23306,7 +23311,7 @@
       <c r="M613" s="21"/>
       <c r="N613" s="31"/>
       <c r="O613" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q613" s="40"/>
       <c r="R613" s="40"/>
@@ -23327,7 +23332,7 @@
       <c r="M614" s="21"/>
       <c r="N614" s="31"/>
       <c r="O614" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q614" s="40"/>
       <c r="R614" s="40"/>
@@ -23348,7 +23353,7 @@
       <c r="M615" s="21"/>
       <c r="N615" s="31"/>
       <c r="O615" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q615" s="40"/>
       <c r="R615" s="40"/>
@@ -23369,7 +23374,7 @@
       <c r="M616" s="21"/>
       <c r="N616" s="31"/>
       <c r="O616" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q616" s="40"/>
       <c r="R616" s="40"/>
@@ -23390,7 +23395,7 @@
       <c r="M617" s="21"/>
       <c r="N617" s="31"/>
       <c r="O617" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q617" s="40"/>
       <c r="R617" s="40"/>
@@ -23411,7 +23416,7 @@
       <c r="M618" s="21"/>
       <c r="N618" s="31"/>
       <c r="O618" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q618" s="40"/>
       <c r="R618" s="40"/>
@@ -23432,7 +23437,7 @@
       <c r="M619" s="21"/>
       <c r="N619" s="31"/>
       <c r="O619" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q619" s="40"/>
       <c r="R619" s="40"/>
@@ -23453,7 +23458,7 @@
       <c r="M620" s="21"/>
       <c r="N620" s="31"/>
       <c r="O620" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q620" s="40"/>
       <c r="R620" s="40"/>
@@ -23474,7 +23479,7 @@
       <c r="M621" s="21"/>
       <c r="N621" s="31"/>
       <c r="O621" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q621" s="40"/>
       <c r="R621" s="40"/>
@@ -23495,7 +23500,7 @@
       <c r="M622" s="21"/>
       <c r="N622" s="31"/>
       <c r="O622" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q622" s="40"/>
       <c r="R622" s="40"/>
@@ -23516,7 +23521,7 @@
       <c r="M623" s="21"/>
       <c r="N623" s="31"/>
       <c r="O623" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q623" s="40"/>
       <c r="R623" s="40"/>
@@ -23537,7 +23542,7 @@
       <c r="M624" s="21"/>
       <c r="N624" s="31"/>
       <c r="O624" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q624" s="40"/>
       <c r="R624" s="40"/>
@@ -23558,7 +23563,7 @@
       <c r="M625" s="21"/>
       <c r="N625" s="31"/>
       <c r="O625" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q625" s="40"/>
       <c r="R625" s="40"/>
@@ -23579,7 +23584,7 @@
       <c r="M626" s="21"/>
       <c r="N626" s="31"/>
       <c r="O626" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q626" s="40"/>
       <c r="R626" s="40"/>
@@ -23600,7 +23605,7 @@
       <c r="M627" s="21"/>
       <c r="N627" s="31"/>
       <c r="O627" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q627" s="40"/>
       <c r="R627" s="40"/>
@@ -23621,7 +23626,7 @@
       <c r="M628" s="21"/>
       <c r="N628" s="31"/>
       <c r="O628" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q628" s="40"/>
       <c r="R628" s="40"/>
@@ -23642,7 +23647,7 @@
       <c r="M629" s="21"/>
       <c r="N629" s="31"/>
       <c r="O629" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q629" s="40"/>
       <c r="R629" s="40"/>
@@ -23663,7 +23668,7 @@
       <c r="M630" s="21"/>
       <c r="N630" s="31"/>
       <c r="O630" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q630" s="40"/>
       <c r="R630" s="40"/>
@@ -23684,7 +23689,7 @@
       <c r="M631" s="21"/>
       <c r="N631" s="31"/>
       <c r="O631" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q631" s="40"/>
       <c r="R631" s="40"/>
@@ -23705,7 +23710,7 @@
       <c r="M632" s="21"/>
       <c r="N632" s="31"/>
       <c r="O632" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q632" s="40"/>
       <c r="R632" s="40"/>
@@ -23726,7 +23731,7 @@
       <c r="M633" s="21"/>
       <c r="N633" s="31"/>
       <c r="O633" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q633" s="40"/>
       <c r="R633" s="40"/>
@@ -23747,7 +23752,7 @@
       <c r="M634" s="21"/>
       <c r="N634" s="31"/>
       <c r="O634" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q634" s="40"/>
       <c r="R634" s="40"/>
@@ -23768,7 +23773,7 @@
       <c r="M635" s="21"/>
       <c r="N635" s="31"/>
       <c r="O635" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q635" s="40"/>
       <c r="R635" s="40"/>
@@ -23789,7 +23794,7 @@
       <c r="M636" s="21"/>
       <c r="N636" s="31"/>
       <c r="O636" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q636" s="40"/>
       <c r="R636" s="40"/>
@@ -23810,7 +23815,7 @@
       <c r="M637" s="21"/>
       <c r="N637" s="31"/>
       <c r="O637" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q637" s="40"/>
       <c r="R637" s="40"/>
@@ -23831,7 +23836,7 @@
       <c r="M638" s="21"/>
       <c r="N638" s="31"/>
       <c r="O638" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q638" s="40"/>
       <c r="R638" s="40"/>
@@ -23852,7 +23857,7 @@
       <c r="M639" s="21"/>
       <c r="N639" s="31"/>
       <c r="O639" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q639" s="40"/>
       <c r="R639" s="40"/>
@@ -23873,7 +23878,7 @@
       <c r="M640" s="21"/>
       <c r="N640" s="31"/>
       <c r="O640" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q640" s="40"/>
       <c r="R640" s="40"/>
@@ -23894,7 +23899,7 @@
       <c r="M641" s="21"/>
       <c r="N641" s="31"/>
       <c r="O641" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q641" s="40"/>
       <c r="R641" s="40"/>
@@ -23915,7 +23920,7 @@
       <c r="M642" s="21"/>
       <c r="N642" s="31"/>
       <c r="O642" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q642" s="40"/>
       <c r="R642" s="40"/>
@@ -23936,7 +23941,7 @@
       <c r="M643" s="21"/>
       <c r="N643" s="31"/>
       <c r="O643" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q643" s="40"/>
       <c r="R643" s="40"/>
@@ -23957,7 +23962,7 @@
       <c r="M644" s="21"/>
       <c r="N644" s="31"/>
       <c r="O644" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q644" s="40"/>
       <c r="R644" s="40"/>
@@ -23978,7 +23983,7 @@
       <c r="M645" s="21"/>
       <c r="N645" s="31"/>
       <c r="O645" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q645" s="40"/>
       <c r="R645" s="40"/>
@@ -23999,7 +24004,7 @@
       <c r="M646" s="21"/>
       <c r="N646" s="31"/>
       <c r="O646" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q646" s="40"/>
       <c r="R646" s="40"/>
@@ -24020,7 +24025,7 @@
       <c r="M647" s="21"/>
       <c r="N647" s="31"/>
       <c r="O647" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q647" s="40"/>
       <c r="R647" s="40"/>
@@ -24041,7 +24046,7 @@
       <c r="M648" s="21"/>
       <c r="N648" s="31"/>
       <c r="O648" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q648" s="40"/>
       <c r="R648" s="40"/>
@@ -24062,7 +24067,7 @@
       <c r="M649" s="21"/>
       <c r="N649" s="31"/>
       <c r="O649" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q649" s="40"/>
       <c r="R649" s="40"/>
@@ -24083,7 +24088,7 @@
       <c r="M650" s="21"/>
       <c r="N650" s="31"/>
       <c r="O650" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q650" s="40"/>
       <c r="R650" s="40"/>
@@ -24104,7 +24109,7 @@
       <c r="M651" s="21"/>
       <c r="N651" s="31"/>
       <c r="O651" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q651" s="40"/>
       <c r="R651" s="40"/>
@@ -24125,7 +24130,7 @@
       <c r="M652" s="21"/>
       <c r="N652" s="31"/>
       <c r="O652" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q652" s="40"/>
       <c r="R652" s="40"/>
@@ -24146,7 +24151,7 @@
       <c r="M653" s="21"/>
       <c r="N653" s="31"/>
       <c r="O653" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q653" s="40"/>
       <c r="R653" s="40"/>
@@ -24167,7 +24172,7 @@
       <c r="M654" s="21"/>
       <c r="N654" s="31"/>
       <c r="O654" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q654" s="40"/>
       <c r="R654" s="40"/>
@@ -24188,7 +24193,7 @@
       <c r="M655" s="21"/>
       <c r="N655" s="31"/>
       <c r="O655" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q655" s="40"/>
       <c r="R655" s="40"/>
@@ -24209,7 +24214,7 @@
       <c r="M656" s="21"/>
       <c r="N656" s="31"/>
       <c r="O656" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q656" s="40"/>
       <c r="R656" s="40"/>
@@ -24230,7 +24235,7 @@
       <c r="M657" s="21"/>
       <c r="N657" s="31"/>
       <c r="O657" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q657" s="40"/>
       <c r="R657" s="40"/>
@@ -24251,7 +24256,7 @@
       <c r="M658" s="21"/>
       <c r="N658" s="31"/>
       <c r="O658" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q658" s="40"/>
       <c r="R658" s="40"/>
@@ -24272,7 +24277,7 @@
       <c r="M659" s="21"/>
       <c r="N659" s="31"/>
       <c r="O659" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q659" s="40"/>
       <c r="R659" s="40"/>
@@ -24293,7 +24298,7 @@
       <c r="M660" s="21"/>
       <c r="N660" s="31"/>
       <c r="O660" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q660" s="40"/>
       <c r="R660" s="40"/>
@@ -24314,7 +24319,7 @@
       <c r="M661" s="21"/>
       <c r="N661" s="31"/>
       <c r="O661" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q661" s="40"/>
       <c r="R661" s="40"/>
@@ -24335,7 +24340,7 @@
       <c r="M662" s="21"/>
       <c r="N662" s="31"/>
       <c r="O662" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q662" s="40"/>
       <c r="R662" s="40"/>
@@ -24356,7 +24361,7 @@
       <c r="M663" s="21"/>
       <c r="N663" s="31"/>
       <c r="O663" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q663" s="40"/>
       <c r="R663" s="40"/>
@@ -24377,7 +24382,7 @@
       <c r="M664" s="21"/>
       <c r="N664" s="31"/>
       <c r="O664" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q664" s="40"/>
       <c r="R664" s="40"/>
@@ -24398,7 +24403,7 @@
       <c r="M665" s="21"/>
       <c r="N665" s="31"/>
       <c r="O665" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q665" s="40"/>
       <c r="R665" s="40"/>
@@ -24419,7 +24424,7 @@
       <c r="M666" s="21"/>
       <c r="N666" s="31"/>
       <c r="O666" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q666" s="40"/>
       <c r="R666" s="40"/>
@@ -24440,7 +24445,7 @@
       <c r="M667" s="21"/>
       <c r="N667" s="31"/>
       <c r="O667" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q667" s="40"/>
       <c r="R667" s="40"/>
@@ -24461,7 +24466,7 @@
       <c r="M668" s="21"/>
       <c r="N668" s="31"/>
       <c r="O668" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q668" s="40"/>
       <c r="R668" s="40"/>
@@ -24482,7 +24487,7 @@
       <c r="M669" s="21"/>
       <c r="N669" s="31"/>
       <c r="O669" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q669" s="40"/>
       <c r="R669" s="40"/>
@@ -24503,7 +24508,7 @@
       <c r="M670" s="21"/>
       <c r="N670" s="31"/>
       <c r="O670" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q670" s="40"/>
       <c r="R670" s="40"/>
@@ -24524,7 +24529,7 @@
       <c r="M671" s="21"/>
       <c r="N671" s="31"/>
       <c r="O671" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q671" s="40"/>
       <c r="R671" s="40"/>
@@ -24545,7 +24550,7 @@
       <c r="M672" s="21"/>
       <c r="N672" s="31"/>
       <c r="O672" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q672" s="40"/>
       <c r="R672" s="40"/>
@@ -24566,7 +24571,7 @@
       <c r="M673" s="21"/>
       <c r="N673" s="31"/>
       <c r="O673" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q673" s="40"/>
       <c r="R673" s="40"/>
@@ -24587,7 +24592,7 @@
       <c r="M674" s="21"/>
       <c r="N674" s="31"/>
       <c r="O674" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q674" s="40"/>
       <c r="R674" s="40"/>
@@ -24608,7 +24613,7 @@
       <c r="M675" s="21"/>
       <c r="N675" s="31"/>
       <c r="O675" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q675" s="40"/>
       <c r="R675" s="40"/>
@@ -24629,7 +24634,7 @@
       <c r="M676" s="21"/>
       <c r="N676" s="31"/>
       <c r="O676" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q676" s="40"/>
       <c r="R676" s="40"/>
@@ -24650,7 +24655,7 @@
       <c r="M677" s="21"/>
       <c r="N677" s="31"/>
       <c r="O677" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q677" s="40"/>
       <c r="R677" s="40"/>
@@ -24671,7 +24676,7 @@
       <c r="M678" s="21"/>
       <c r="N678" s="31"/>
       <c r="O678" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q678" s="40"/>
       <c r="R678" s="40"/>
@@ -24692,7 +24697,7 @@
       <c r="M679" s="21"/>
       <c r="N679" s="31"/>
       <c r="O679" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q679" s="40"/>
       <c r="R679" s="40"/>
@@ -24713,7 +24718,7 @@
       <c r="M680" s="21"/>
       <c r="N680" s="31"/>
       <c r="O680" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q680" s="40"/>
       <c r="R680" s="40"/>
@@ -24734,7 +24739,7 @@
       <c r="M681" s="21"/>
       <c r="N681" s="31"/>
       <c r="O681" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q681" s="40"/>
       <c r="R681" s="40"/>
@@ -24755,7 +24760,7 @@
       <c r="M682" s="21"/>
       <c r="N682" s="31"/>
       <c r="O682" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q682" s="40"/>
       <c r="R682" s="40"/>
@@ -24776,7 +24781,7 @@
       <c r="M683" s="21"/>
       <c r="N683" s="31"/>
       <c r="O683" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q683" s="40"/>
       <c r="R683" s="40"/>
@@ -24797,7 +24802,7 @@
       <c r="M684" s="21"/>
       <c r="N684" s="31"/>
       <c r="O684" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q684" s="40"/>
       <c r="R684" s="40"/>
@@ -24818,7 +24823,7 @@
       <c r="M685" s="21"/>
       <c r="N685" s="31"/>
       <c r="O685" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q685" s="40"/>
       <c r="R685" s="40"/>
@@ -24839,7 +24844,7 @@
       <c r="M686" s="21"/>
       <c r="N686" s="31"/>
       <c r="O686" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q686" s="40"/>
       <c r="R686" s="40"/>
@@ -24860,7 +24865,7 @@
       <c r="M687" s="21"/>
       <c r="N687" s="31"/>
       <c r="O687" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q687" s="40"/>
       <c r="R687" s="40"/>
@@ -24881,7 +24886,7 @@
       <c r="M688" s="21"/>
       <c r="N688" s="31"/>
       <c r="O688" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q688" s="40"/>
       <c r="R688" s="40"/>
@@ -24902,7 +24907,7 @@
       <c r="M689" s="21"/>
       <c r="N689" s="31"/>
       <c r="O689" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q689" s="40"/>
       <c r="R689" s="40"/>
@@ -24923,7 +24928,7 @@
       <c r="M690" s="21"/>
       <c r="N690" s="31"/>
       <c r="O690" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q690" s="40"/>
       <c r="R690" s="40"/>
@@ -24944,7 +24949,7 @@
       <c r="M691" s="21"/>
       <c r="N691" s="31"/>
       <c r="O691" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q691" s="40"/>
       <c r="R691" s="40"/>
@@ -24965,7 +24970,7 @@
       <c r="M692" s="21"/>
       <c r="N692" s="31"/>
       <c r="O692" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q692" s="40"/>
       <c r="R692" s="40"/>
@@ -24986,7 +24991,7 @@
       <c r="M693" s="21"/>
       <c r="N693" s="31"/>
       <c r="O693" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q693" s="40"/>
       <c r="R693" s="40"/>
@@ -25007,7 +25012,7 @@
       <c r="M694" s="21"/>
       <c r="N694" s="31"/>
       <c r="O694" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q694" s="40"/>
       <c r="R694" s="40"/>
@@ -25028,7 +25033,7 @@
       <c r="M695" s="21"/>
       <c r="N695" s="31"/>
       <c r="O695" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q695" s="40"/>
       <c r="R695" s="40"/>
@@ -25049,7 +25054,7 @@
       <c r="M696" s="21"/>
       <c r="N696" s="31"/>
       <c r="O696" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q696" s="40"/>
       <c r="R696" s="40"/>
@@ -25070,7 +25075,7 @@
       <c r="M697" s="21"/>
       <c r="N697" s="31"/>
       <c r="O697" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q697" s="40"/>
       <c r="R697" s="40"/>
@@ -25091,7 +25096,7 @@
       <c r="M698" s="21"/>
       <c r="N698" s="31"/>
       <c r="O698" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q698" s="40"/>
       <c r="R698" s="40"/>
@@ -25112,7 +25117,7 @@
       <c r="M699" s="21"/>
       <c r="N699" s="31"/>
       <c r="O699" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q699" s="40"/>
       <c r="R699" s="40"/>
@@ -25133,7 +25138,7 @@
       <c r="M700" s="21"/>
       <c r="N700" s="31"/>
       <c r="O700" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q700" s="40"/>
       <c r="R700" s="40"/>
@@ -25154,7 +25159,7 @@
       <c r="M701" s="21"/>
       <c r="N701" s="31"/>
       <c r="O701" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q701" s="40"/>
       <c r="R701" s="40"/>
@@ -25175,7 +25180,7 @@
       <c r="M702" s="21"/>
       <c r="N702" s="31"/>
       <c r="O702" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q702" s="40"/>
       <c r="R702" s="40"/>
@@ -25196,7 +25201,7 @@
       <c r="M703" s="21"/>
       <c r="N703" s="31"/>
       <c r="O703" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q703" s="40"/>
       <c r="R703" s="40"/>
@@ -25217,7 +25222,7 @@
       <c r="M704" s="21"/>
       <c r="N704" s="31"/>
       <c r="O704" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q704" s="40"/>
       <c r="R704" s="40"/>
@@ -25238,7 +25243,7 @@
       <c r="M705" s="21"/>
       <c r="N705" s="31"/>
       <c r="O705" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q705" s="40"/>
       <c r="R705" s="40"/>
@@ -25259,7 +25264,7 @@
       <c r="M706" s="21"/>
       <c r="N706" s="31"/>
       <c r="O706" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q706" s="40"/>
       <c r="R706" s="40"/>
@@ -25280,7 +25285,7 @@
       <c r="M707" s="21"/>
       <c r="N707" s="31"/>
       <c r="O707" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q707" s="40"/>
       <c r="R707" s="40"/>
@@ -25301,7 +25306,7 @@
       <c r="M708" s="21"/>
       <c r="N708" s="31"/>
       <c r="O708" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q708" s="40"/>
       <c r="R708" s="40"/>
@@ -25322,7 +25327,7 @@
       <c r="M709" s="21"/>
       <c r="N709" s="31"/>
       <c r="O709" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q709" s="40"/>
       <c r="R709" s="40"/>
@@ -25343,7 +25348,7 @@
       <c r="M710" s="21"/>
       <c r="N710" s="31"/>
       <c r="O710" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q710" s="40"/>
       <c r="R710" s="40"/>
@@ -25364,7 +25369,7 @@
       <c r="M711" s="21"/>
       <c r="N711" s="31"/>
       <c r="O711" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q711" s="40"/>
       <c r="R711" s="40"/>
@@ -25385,7 +25390,7 @@
       <c r="M712" s="21"/>
       <c r="N712" s="31"/>
       <c r="O712" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q712" s="40"/>
       <c r="R712" s="40"/>
@@ -25406,7 +25411,7 @@
       <c r="M713" s="21"/>
       <c r="N713" s="31"/>
       <c r="O713" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q713" s="40"/>
       <c r="R713" s="40"/>
@@ -25427,7 +25432,7 @@
       <c r="M714" s="21"/>
       <c r="N714" s="31"/>
       <c r="O714" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q714" s="40"/>
       <c r="R714" s="40"/>
@@ -25448,7 +25453,7 @@
       <c r="M715" s="21"/>
       <c r="N715" s="31"/>
       <c r="O715" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q715" s="40"/>
       <c r="R715" s="40"/>
@@ -25469,7 +25474,7 @@
       <c r="M716" s="21"/>
       <c r="N716" s="31"/>
       <c r="O716" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q716" s="40"/>
       <c r="R716" s="40"/>
@@ -25490,7 +25495,7 @@
       <c r="M717" s="21"/>
       <c r="N717" s="31"/>
       <c r="O717" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q717" s="40"/>
       <c r="R717" s="40"/>
@@ -25511,7 +25516,7 @@
       <c r="M718" s="21"/>
       <c r="N718" s="31"/>
       <c r="O718" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q718" s="40"/>
       <c r="R718" s="40"/>
@@ -25532,7 +25537,7 @@
       <c r="M719" s="21"/>
       <c r="N719" s="31"/>
       <c r="O719" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q719" s="40"/>
       <c r="R719" s="40"/>
@@ -25553,7 +25558,7 @@
       <c r="M720" s="21"/>
       <c r="N720" s="31"/>
       <c r="O720" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q720" s="40"/>
       <c r="R720" s="40"/>
@@ -25574,7 +25579,7 @@
       <c r="M721" s="21"/>
       <c r="N721" s="31"/>
       <c r="O721" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q721" s="40"/>
       <c r="R721" s="40"/>
@@ -25595,7 +25600,7 @@
       <c r="M722" s="21"/>
       <c r="N722" s="31"/>
       <c r="O722" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q722" s="40"/>
       <c r="R722" s="40"/>
@@ -25616,7 +25621,7 @@
       <c r="M723" s="21"/>
       <c r="N723" s="31"/>
       <c r="O723" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q723" s="40"/>
       <c r="R723" s="40"/>
@@ -25637,7 +25642,7 @@
       <c r="M724" s="21"/>
       <c r="N724" s="31"/>
       <c r="O724" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q724" s="40"/>
       <c r="R724" s="40"/>
@@ -25658,7 +25663,7 @@
       <c r="M725" s="21"/>
       <c r="N725" s="31"/>
       <c r="O725" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q725" s="40"/>
       <c r="R725" s="40"/>
@@ -25679,7 +25684,7 @@
       <c r="M726" s="21"/>
       <c r="N726" s="31"/>
       <c r="O726" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q726" s="40"/>
       <c r="R726" s="40"/>
@@ -25700,7 +25705,7 @@
       <c r="M727" s="21"/>
       <c r="N727" s="31"/>
       <c r="O727" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q727" s="40"/>
       <c r="R727" s="40"/>
@@ -25721,7 +25726,7 @@
       <c r="M728" s="21"/>
       <c r="N728" s="31"/>
       <c r="O728" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q728" s="40"/>
       <c r="R728" s="40"/>
@@ -25742,7 +25747,7 @@
       <c r="M729" s="21"/>
       <c r="N729" s="31"/>
       <c r="O729" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q729" s="40"/>
       <c r="R729" s="40"/>
@@ -25763,7 +25768,7 @@
       <c r="M730" s="21"/>
       <c r="N730" s="31"/>
       <c r="O730" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q730" s="40"/>
       <c r="R730" s="40"/>
@@ -25784,7 +25789,7 @@
       <c r="M731" s="21"/>
       <c r="N731" s="31"/>
       <c r="O731" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q731" s="40"/>
       <c r="R731" s="40"/>
@@ -25805,7 +25810,7 @@
       <c r="M732" s="21"/>
       <c r="N732" s="31"/>
       <c r="O732" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q732" s="40"/>
       <c r="R732" s="40"/>
@@ -25826,7 +25831,7 @@
       <c r="M733" s="21"/>
       <c r="N733" s="31"/>
       <c r="O733" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q733" s="40"/>
       <c r="R733" s="40"/>
@@ -25847,7 +25852,7 @@
       <c r="M734" s="21"/>
       <c r="N734" s="31"/>
       <c r="O734" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q734" s="40"/>
       <c r="R734" s="40"/>
@@ -25868,7 +25873,7 @@
       <c r="M735" s="21"/>
       <c r="N735" s="31"/>
       <c r="O735" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q735" s="40"/>
       <c r="R735" s="40"/>
@@ -25889,7 +25894,7 @@
       <c r="M736" s="21"/>
       <c r="N736" s="31"/>
       <c r="O736" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q736" s="40"/>
       <c r="R736" s="40"/>
@@ -25910,7 +25915,7 @@
       <c r="M737" s="21"/>
       <c r="N737" s="31"/>
       <c r="O737" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q737" s="40"/>
       <c r="R737" s="40"/>
@@ -25931,7 +25936,7 @@
       <c r="M738" s="21"/>
       <c r="N738" s="31"/>
       <c r="O738" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q738" s="40"/>
       <c r="R738" s="40"/>
@@ -25952,7 +25957,7 @@
       <c r="M739" s="21"/>
       <c r="N739" s="31"/>
       <c r="O739" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q739" s="40"/>
       <c r="R739" s="40"/>
@@ -25973,7 +25978,7 @@
       <c r="M740" s="21"/>
       <c r="N740" s="31"/>
       <c r="O740" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q740" s="40"/>
       <c r="R740" s="40"/>
@@ -25994,7 +25999,7 @@
       <c r="M741" s="21"/>
       <c r="N741" s="31"/>
       <c r="O741" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q741" s="40"/>
       <c r="R741" s="40"/>
@@ -26015,7 +26020,7 @@
       <c r="M742" s="21"/>
       <c r="N742" s="31"/>
       <c r="O742" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q742" s="40"/>
       <c r="R742" s="40"/>
@@ -26036,7 +26041,7 @@
       <c r="M743" s="21"/>
       <c r="N743" s="31"/>
       <c r="O743" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q743" s="40"/>
       <c r="R743" s="40"/>
@@ -26057,7 +26062,7 @@
       <c r="M744" s="21"/>
       <c r="N744" s="31"/>
       <c r="O744" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q744" s="40"/>
       <c r="R744" s="40"/>
@@ -26078,7 +26083,7 @@
       <c r="M745" s="21"/>
       <c r="N745" s="31"/>
       <c r="O745" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q745" s="40"/>
       <c r="R745" s="40"/>
@@ -26099,7 +26104,7 @@
       <c r="M746" s="21"/>
       <c r="N746" s="31"/>
       <c r="O746" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q746" s="40"/>
       <c r="R746" s="40"/>
@@ -26120,7 +26125,7 @@
       <c r="M747" s="21"/>
       <c r="N747" s="31"/>
       <c r="O747" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q747" s="40"/>
       <c r="R747" s="40"/>
@@ -26141,7 +26146,7 @@
       <c r="M748" s="21"/>
       <c r="N748" s="31"/>
       <c r="O748" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q748" s="40"/>
       <c r="R748" s="40"/>
@@ -26162,7 +26167,7 @@
       <c r="M749" s="21"/>
       <c r="N749" s="31"/>
       <c r="O749" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q749" s="40"/>
       <c r="R749" s="40"/>
@@ -26183,7 +26188,7 @@
       <c r="M750" s="21"/>
       <c r="N750" s="31"/>
       <c r="O750" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q750" s="40"/>
       <c r="R750" s="40"/>
@@ -26204,7 +26209,7 @@
       <c r="M751" s="21"/>
       <c r="N751" s="31"/>
       <c r="O751" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q751" s="40"/>
       <c r="R751" s="40"/>
@@ -26225,7 +26230,7 @@
       <c r="M752" s="21"/>
       <c r="N752" s="31"/>
       <c r="O752" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q752" s="40"/>
       <c r="R752" s="40"/>
@@ -26246,7 +26251,7 @@
       <c r="M753" s="21"/>
       <c r="N753" s="31"/>
       <c r="O753" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q753" s="40"/>
       <c r="R753" s="40"/>
@@ -26267,7 +26272,7 @@
       <c r="M754" s="21"/>
       <c r="N754" s="31"/>
       <c r="O754" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q754" s="40"/>
       <c r="R754" s="40"/>
@@ -26288,7 +26293,7 @@
       <c r="M755" s="21"/>
       <c r="N755" s="31"/>
       <c r="O755" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q755" s="40"/>
       <c r="R755" s="40"/>
@@ -26309,7 +26314,7 @@
       <c r="M756" s="21"/>
       <c r="N756" s="31"/>
       <c r="O756" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q756" s="40"/>
       <c r="R756" s="40"/>
@@ -26330,7 +26335,7 @@
       <c r="M757" s="21"/>
       <c r="N757" s="31"/>
       <c r="O757" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q757" s="40"/>
       <c r="R757" s="40"/>
@@ -26351,7 +26356,7 @@
       <c r="M758" s="21"/>
       <c r="N758" s="31"/>
       <c r="O758" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q758" s="40"/>
       <c r="R758" s="40"/>
@@ -26372,7 +26377,7 @@
       <c r="M759" s="21"/>
       <c r="N759" s="31"/>
       <c r="O759" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q759" s="40"/>
       <c r="R759" s="40"/>
@@ -26393,7 +26398,7 @@
       <c r="M760" s="21"/>
       <c r="N760" s="31"/>
       <c r="O760" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q760" s="40"/>
       <c r="R760" s="40"/>
@@ -26414,7 +26419,7 @@
       <c r="M761" s="21"/>
       <c r="N761" s="31"/>
       <c r="O761" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q761" s="40"/>
       <c r="R761" s="40"/>
@@ -26435,7 +26440,7 @@
       <c r="M762" s="21"/>
       <c r="N762" s="31"/>
       <c r="O762" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q762" s="40"/>
       <c r="R762" s="40"/>
@@ -26456,7 +26461,7 @@
       <c r="M763" s="21"/>
       <c r="N763" s="31"/>
       <c r="O763" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q763" s="40"/>
       <c r="R763" s="40"/>
@@ -26477,7 +26482,7 @@
       <c r="M764" s="21"/>
       <c r="N764" s="31"/>
       <c r="O764" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q764" s="40"/>
       <c r="R764" s="40"/>
@@ -26498,7 +26503,7 @@
       <c r="M765" s="21"/>
       <c r="N765" s="31"/>
       <c r="O765" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q765" s="40"/>
       <c r="R765" s="40"/>
@@ -26519,7 +26524,7 @@
       <c r="M766" s="21"/>
       <c r="N766" s="31"/>
       <c r="O766" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q766" s="40"/>
       <c r="R766" s="40"/>
@@ -26540,7 +26545,7 @@
       <c r="M767" s="21"/>
       <c r="N767" s="31"/>
       <c r="O767" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q767" s="40"/>
       <c r="R767" s="40"/>
@@ -26561,7 +26566,7 @@
       <c r="M768" s="21"/>
       <c r="N768" s="31"/>
       <c r="O768" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q768" s="40"/>
       <c r="R768" s="40"/>
@@ -26582,7 +26587,7 @@
       <c r="M769" s="21"/>
       <c r="N769" s="31"/>
       <c r="O769" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q769" s="40"/>
       <c r="R769" s="40"/>
@@ -26603,7 +26608,7 @@
       <c r="M770" s="21"/>
       <c r="N770" s="31"/>
       <c r="O770" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q770" s="40"/>
       <c r="R770" s="40"/>
@@ -26624,7 +26629,7 @@
       <c r="M771" s="21"/>
       <c r="N771" s="31"/>
       <c r="O771" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q771" s="40"/>
       <c r="R771" s="40"/>
@@ -26645,7 +26650,7 @@
       <c r="M772" s="21"/>
       <c r="N772" s="31"/>
       <c r="O772" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q772" s="40"/>
       <c r="R772" s="40"/>
@@ -26666,7 +26671,7 @@
       <c r="M773" s="21"/>
       <c r="N773" s="31"/>
       <c r="O773" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q773" s="40"/>
       <c r="R773" s="40"/>
@@ -26687,7 +26692,7 @@
       <c r="M774" s="21"/>
       <c r="N774" s="31"/>
       <c r="O774" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q774" s="40"/>
       <c r="R774" s="40"/>
@@ -26708,7 +26713,7 @@
       <c r="M775" s="21"/>
       <c r="N775" s="31"/>
       <c r="O775" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q775" s="40"/>
       <c r="R775" s="40"/>
@@ -26729,7 +26734,7 @@
       <c r="M776" s="21"/>
       <c r="N776" s="31"/>
       <c r="O776" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q776" s="40"/>
       <c r="R776" s="40"/>
@@ -26750,7 +26755,7 @@
       <c r="M777" s="21"/>
       <c r="N777" s="31"/>
       <c r="O777" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q777" s="40"/>
       <c r="R777" s="40"/>
@@ -26771,7 +26776,7 @@
       <c r="M778" s="21"/>
       <c r="N778" s="31"/>
       <c r="O778" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q778" s="40"/>
       <c r="R778" s="40"/>
@@ -26792,7 +26797,7 @@
       <c r="M779" s="21"/>
       <c r="N779" s="31"/>
       <c r="O779" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q779" s="40"/>
       <c r="R779" s="40"/>
@@ -26813,7 +26818,7 @@
       <c r="M780" s="21"/>
       <c r="N780" s="31"/>
       <c r="O780" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q780" s="40"/>
       <c r="R780" s="40"/>
@@ -26834,7 +26839,7 @@
       <c r="M781" s="21"/>
       <c r="N781" s="31"/>
       <c r="O781" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q781" s="40"/>
       <c r="R781" s="40"/>
@@ -26855,7 +26860,7 @@
       <c r="M782" s="21"/>
       <c r="N782" s="31"/>
       <c r="O782" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q782" s="40"/>
       <c r="R782" s="40"/>
@@ -26876,7 +26881,7 @@
       <c r="M783" s="21"/>
       <c r="N783" s="31"/>
       <c r="O783" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q783" s="40"/>
       <c r="R783" s="40"/>
@@ -26897,7 +26902,7 @@
       <c r="M784" s="21"/>
       <c r="N784" s="31"/>
       <c r="O784" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q784" s="40"/>
       <c r="R784" s="40"/>
@@ -26918,7 +26923,7 @@
       <c r="M785" s="21"/>
       <c r="N785" s="31"/>
       <c r="O785" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q785" s="40"/>
       <c r="R785" s="40"/>
@@ -26939,7 +26944,7 @@
       <c r="M786" s="21"/>
       <c r="N786" s="31"/>
       <c r="O786" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q786" s="40"/>
       <c r="R786" s="40"/>
@@ -26960,7 +26965,7 @@
       <c r="M787" s="21"/>
       <c r="N787" s="31"/>
       <c r="O787" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q787" s="40"/>
       <c r="R787" s="40"/>
@@ -26981,7 +26986,7 @@
       <c r="M788" s="21"/>
       <c r="N788" s="31"/>
       <c r="O788" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q788" s="40"/>
       <c r="R788" s="40"/>
@@ -27002,7 +27007,7 @@
       <c r="M789" s="21"/>
       <c r="N789" s="31"/>
       <c r="O789" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q789" s="40"/>
       <c r="R789" s="40"/>
@@ -27023,7 +27028,7 @@
       <c r="M790" s="21"/>
       <c r="N790" s="31"/>
       <c r="O790" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q790" s="40"/>
       <c r="R790" s="40"/>
@@ -27044,7 +27049,7 @@
       <c r="M791" s="21"/>
       <c r="N791" s="31"/>
       <c r="O791" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q791" s="40"/>
       <c r="R791" s="40"/>
@@ -27065,7 +27070,7 @@
       <c r="M792" s="21"/>
       <c r="N792" s="31"/>
       <c r="O792" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q792" s="40"/>
       <c r="R792" s="40"/>
@@ -27086,7 +27091,7 @@
       <c r="M793" s="21"/>
       <c r="N793" s="31"/>
       <c r="O793" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q793" s="40"/>
       <c r="R793" s="40"/>
@@ -27107,7 +27112,7 @@
       <c r="M794" s="21"/>
       <c r="N794" s="31"/>
       <c r="O794" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q794" s="40"/>
       <c r="R794" s="40"/>
@@ -27128,7 +27133,7 @@
       <c r="M795" s="21"/>
       <c r="N795" s="31"/>
       <c r="O795" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q795" s="40"/>
       <c r="R795" s="40"/>
@@ -27149,7 +27154,7 @@
       <c r="M796" s="21"/>
       <c r="N796" s="31"/>
       <c r="O796" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q796" s="40"/>
       <c r="R796" s="40"/>
@@ -27170,7 +27175,7 @@
       <c r="M797" s="21"/>
       <c r="N797" s="31"/>
       <c r="O797" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q797" s="40"/>
       <c r="R797" s="40"/>
@@ -27191,7 +27196,7 @@
       <c r="M798" s="21"/>
       <c r="N798" s="31"/>
       <c r="O798" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q798" s="40"/>
       <c r="R798" s="40"/>
@@ -27212,7 +27217,7 @@
       <c r="M799" s="21"/>
       <c r="N799" s="31"/>
       <c r="O799" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q799" s="40"/>
       <c r="R799" s="40"/>
@@ -27233,7 +27238,7 @@
       <c r="M800" s="21"/>
       <c r="N800" s="31"/>
       <c r="O800" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q800" s="40"/>
       <c r="R800" s="40"/>
@@ -27254,7 +27259,7 @@
       <c r="M801" s="21"/>
       <c r="N801" s="31"/>
       <c r="O801" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q801" s="40"/>
       <c r="R801" s="40"/>
@@ -27275,7 +27280,7 @@
       <c r="M802" s="21"/>
       <c r="N802" s="31"/>
       <c r="O802" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q802" s="40"/>
       <c r="R802" s="40"/>
@@ -27296,7 +27301,7 @@
       <c r="M803" s="21"/>
       <c r="N803" s="31"/>
       <c r="O803" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q803" s="40"/>
       <c r="R803" s="40"/>
@@ -27317,7 +27322,7 @@
       <c r="M804" s="21"/>
       <c r="N804" s="31"/>
       <c r="O804" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q804" s="40"/>
       <c r="R804" s="40"/>
@@ -27338,7 +27343,7 @@
       <c r="M805" s="21"/>
       <c r="N805" s="31"/>
       <c r="O805" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q805" s="40"/>
       <c r="R805" s="40"/>
@@ -27359,7 +27364,7 @@
       <c r="M806" s="21"/>
       <c r="N806" s="31"/>
       <c r="O806" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q806" s="40"/>
       <c r="R806" s="40"/>
@@ -27380,7 +27385,7 @@
       <c r="M807" s="21"/>
       <c r="N807" s="31"/>
       <c r="O807" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q807" s="40"/>
       <c r="R807" s="40"/>
@@ -27401,7 +27406,7 @@
       <c r="M808" s="21"/>
       <c r="N808" s="31"/>
       <c r="O808" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q808" s="40"/>
       <c r="R808" s="40"/>
@@ -27422,7 +27427,7 @@
       <c r="M809" s="21"/>
       <c r="N809" s="31"/>
       <c r="O809" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q809" s="40"/>
       <c r="R809" s="40"/>
@@ -27443,7 +27448,7 @@
       <c r="M810" s="21"/>
       <c r="N810" s="31"/>
       <c r="O810" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q810" s="40"/>
       <c r="R810" s="40"/>
@@ -27464,7 +27469,7 @@
       <c r="M811" s="21"/>
       <c r="N811" s="31"/>
       <c r="O811" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q811" s="40"/>
       <c r="R811" s="40"/>
@@ -27485,7 +27490,7 @@
       <c r="M812" s="21"/>
       <c r="N812" s="31"/>
       <c r="O812" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q812" s="40"/>
       <c r="R812" s="40"/>
@@ -27506,7 +27511,7 @@
       <c r="M813" s="21"/>
       <c r="N813" s="31"/>
       <c r="O813" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q813" s="40"/>
       <c r="R813" s="40"/>
@@ -27527,7 +27532,7 @@
       <c r="M814" s="21"/>
       <c r="N814" s="31"/>
       <c r="O814" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q814" s="40"/>
       <c r="R814" s="40"/>
@@ -27548,7 +27553,7 @@
       <c r="M815" s="21"/>
       <c r="N815" s="31"/>
       <c r="O815" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q815" s="40"/>
       <c r="R815" s="40"/>
@@ -27569,7 +27574,7 @@
       <c r="M816" s="21"/>
       <c r="N816" s="31"/>
       <c r="O816" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q816" s="40"/>
       <c r="R816" s="40"/>
@@ -27590,7 +27595,7 @@
       <c r="M817" s="21"/>
       <c r="N817" s="31"/>
       <c r="O817" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q817" s="40"/>
       <c r="R817" s="40"/>
@@ -27611,7 +27616,7 @@
       <c r="M818" s="21"/>
       <c r="N818" s="31"/>
       <c r="O818" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q818" s="40"/>
       <c r="R818" s="40"/>
@@ -27632,7 +27637,7 @@
       <c r="M819" s="21"/>
       <c r="N819" s="31"/>
       <c r="O819" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q819" s="40"/>
       <c r="R819" s="40"/>
@@ -27653,7 +27658,7 @@
       <c r="M820" s="21"/>
       <c r="N820" s="31"/>
       <c r="O820" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q820" s="40"/>
       <c r="R820" s="40"/>
@@ -27674,7 +27679,7 @@
       <c r="M821" s="21"/>
       <c r="N821" s="31"/>
       <c r="O821" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q821" s="40"/>
       <c r="R821" s="40"/>
@@ -27695,7 +27700,7 @@
       <c r="M822" s="21"/>
       <c r="N822" s="31"/>
       <c r="O822" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q822" s="40"/>
       <c r="R822" s="40"/>
@@ -27716,7 +27721,7 @@
       <c r="M823" s="21"/>
       <c r="N823" s="31"/>
       <c r="O823" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q823" s="40"/>
       <c r="R823" s="40"/>
@@ -27737,7 +27742,7 @@
       <c r="M824" s="21"/>
       <c r="N824" s="31"/>
       <c r="O824" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q824" s="40"/>
       <c r="R824" s="40"/>
@@ -27758,7 +27763,7 @@
       <c r="M825" s="21"/>
       <c r="N825" s="31"/>
       <c r="O825" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q825" s="40"/>
       <c r="R825" s="40"/>
@@ -27779,7 +27784,7 @@
       <c r="M826" s="21"/>
       <c r="N826" s="31"/>
       <c r="O826" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q826" s="40"/>
       <c r="R826" s="40"/>
@@ -27800,7 +27805,7 @@
       <c r="M827" s="21"/>
       <c r="N827" s="31"/>
       <c r="O827" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q827" s="40"/>
       <c r="R827" s="40"/>
@@ -27821,7 +27826,7 @@
       <c r="M828" s="21"/>
       <c r="N828" s="31"/>
       <c r="O828" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q828" s="40"/>
       <c r="R828" s="40"/>
@@ -27842,7 +27847,7 @@
       <c r="M829" s="21"/>
       <c r="N829" s="31"/>
       <c r="O829" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q829" s="40"/>
       <c r="R829" s="40"/>
@@ -27863,7 +27868,7 @@
       <c r="M830" s="21"/>
       <c r="N830" s="31"/>
       <c r="O830" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q830" s="40"/>
       <c r="R830" s="40"/>
@@ -27884,7 +27889,7 @@
       <c r="M831" s="21"/>
       <c r="N831" s="31"/>
       <c r="O831" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q831" s="40"/>
       <c r="R831" s="40"/>
@@ -27905,7 +27910,7 @@
       <c r="M832" s="21"/>
       <c r="N832" s="31"/>
       <c r="O832" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q832" s="40"/>
       <c r="R832" s="40"/>
@@ -27926,7 +27931,7 @@
       <c r="M833" s="21"/>
       <c r="N833" s="31"/>
       <c r="O833" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q833" s="40"/>
       <c r="R833" s="40"/>
@@ -27947,7 +27952,7 @@
       <c r="M834" s="21"/>
       <c r="N834" s="31"/>
       <c r="O834" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q834" s="40"/>
       <c r="R834" s="40"/>
@@ -27968,7 +27973,7 @@
       <c r="M835" s="21"/>
       <c r="N835" s="31"/>
       <c r="O835" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q835" s="40"/>
       <c r="R835" s="40"/>
@@ -27989,7 +27994,7 @@
       <c r="M836" s="21"/>
       <c r="N836" s="31"/>
       <c r="O836" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q836" s="40"/>
       <c r="R836" s="40"/>
@@ -28010,7 +28015,7 @@
       <c r="M837" s="21"/>
       <c r="N837" s="31"/>
       <c r="O837" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q837" s="40"/>
       <c r="R837" s="40"/>
@@ -28031,7 +28036,7 @@
       <c r="M838" s="21"/>
       <c r="N838" s="31"/>
       <c r="O838" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q838" s="40"/>
       <c r="R838" s="40"/>
@@ -28052,7 +28057,7 @@
       <c r="M839" s="21"/>
       <c r="N839" s="31"/>
       <c r="O839" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q839" s="40"/>
       <c r="R839" s="40"/>
@@ -28073,7 +28078,7 @@
       <c r="M840" s="21"/>
       <c r="N840" s="31"/>
       <c r="O840" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q840" s="40"/>
       <c r="R840" s="40"/>
@@ -28094,7 +28099,7 @@
       <c r="M841" s="21"/>
       <c r="N841" s="31"/>
       <c r="O841" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q841" s="40"/>
       <c r="R841" s="40"/>
@@ -28115,7 +28120,7 @@
       <c r="M842" s="21"/>
       <c r="N842" s="31"/>
       <c r="O842" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q842" s="40"/>
       <c r="R842" s="40"/>
@@ -28136,7 +28141,7 @@
       <c r="M843" s="21"/>
       <c r="N843" s="31"/>
       <c r="O843" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q843" s="40"/>
       <c r="R843" s="40"/>
@@ -28157,7 +28162,7 @@
       <c r="M844" s="21"/>
       <c r="N844" s="31"/>
       <c r="O844" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q844" s="40"/>
       <c r="R844" s="40"/>
@@ -28178,7 +28183,7 @@
       <c r="M845" s="21"/>
       <c r="N845" s="31"/>
       <c r="O845" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q845" s="40"/>
       <c r="R845" s="40"/>
@@ -28199,7 +28204,7 @@
       <c r="M846" s="21"/>
       <c r="N846" s="31"/>
       <c r="O846" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q846" s="40"/>
       <c r="R846" s="40"/>
@@ -28220,7 +28225,7 @@
       <c r="M847" s="21"/>
       <c r="N847" s="31"/>
       <c r="O847" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q847" s="40"/>
       <c r="R847" s="40"/>
@@ -28241,7 +28246,7 @@
       <c r="M848" s="21"/>
       <c r="N848" s="31"/>
       <c r="O848" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q848" s="40"/>
       <c r="R848" s="40"/>
@@ -28262,7 +28267,7 @@
       <c r="M849" s="21"/>
       <c r="N849" s="31"/>
       <c r="O849" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q849" s="40"/>
       <c r="R849" s="40"/>
@@ -28283,7 +28288,7 @@
       <c r="M850" s="21"/>
       <c r="N850" s="31"/>
       <c r="O850" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q850" s="40"/>
       <c r="R850" s="40"/>
@@ -28304,7 +28309,7 @@
       <c r="M851" s="21"/>
       <c r="N851" s="31"/>
       <c r="O851" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q851" s="40"/>
       <c r="R851" s="40"/>
@@ -28325,7 +28330,7 @@
       <c r="M852" s="21"/>
       <c r="N852" s="31"/>
       <c r="O852" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q852" s="40"/>
       <c r="R852" s="40"/>
@@ -28346,7 +28351,7 @@
       <c r="M853" s="21"/>
       <c r="N853" s="31"/>
       <c r="O853" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q853" s="40"/>
       <c r="R853" s="40"/>
@@ -28367,7 +28372,7 @@
       <c r="M854" s="21"/>
       <c r="N854" s="31"/>
       <c r="O854" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q854" s="40"/>
       <c r="R854" s="40"/>
@@ -28388,7 +28393,7 @@
       <c r="M855" s="21"/>
       <c r="N855" s="31"/>
       <c r="O855" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q855" s="40"/>
       <c r="R855" s="40"/>
@@ -28409,7 +28414,7 @@
       <c r="M856" s="21"/>
       <c r="N856" s="31"/>
       <c r="O856" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q856" s="40"/>
       <c r="R856" s="40"/>
@@ -28430,7 +28435,7 @@
       <c r="M857" s="21"/>
       <c r="N857" s="31"/>
       <c r="O857" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q857" s="40"/>
       <c r="R857" s="40"/>
@@ -28451,7 +28456,7 @@
       <c r="M858" s="21"/>
       <c r="N858" s="31"/>
       <c r="O858" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q858" s="40"/>
       <c r="R858" s="40"/>
@@ -28472,7 +28477,7 @@
       <c r="M859" s="21"/>
       <c r="N859" s="31"/>
       <c r="O859" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q859" s="40"/>
       <c r="R859" s="40"/>
@@ -28493,7 +28498,7 @@
       <c r="M860" s="21"/>
       <c r="N860" s="31"/>
       <c r="O860" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q860" s="40"/>
       <c r="R860" s="40"/>
@@ -28514,7 +28519,7 @@
       <c r="M861" s="21"/>
       <c r="N861" s="31"/>
       <c r="O861" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q861" s="40"/>
       <c r="R861" s="40"/>
@@ -28535,7 +28540,7 @@
       <c r="M862" s="21"/>
       <c r="N862" s="31"/>
       <c r="O862" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q862" s="40"/>
       <c r="R862" s="40"/>
@@ -28556,7 +28561,7 @@
       <c r="M863" s="21"/>
       <c r="N863" s="31"/>
       <c r="O863" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q863" s="40"/>
       <c r="R863" s="40"/>
@@ -28577,7 +28582,7 @@
       <c r="M864" s="21"/>
       <c r="N864" s="31"/>
       <c r="O864" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q864" s="40"/>
       <c r="R864" s="40"/>
@@ -28598,7 +28603,7 @@
       <c r="M865" s="21"/>
       <c r="N865" s="31"/>
       <c r="O865" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q865" s="40"/>
       <c r="R865" s="40"/>
@@ -28619,7 +28624,7 @@
       <c r="M866" s="21"/>
       <c r="N866" s="31"/>
       <c r="O866" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q866" s="40"/>
       <c r="R866" s="40"/>
@@ -28640,7 +28645,7 @@
       <c r="M867" s="21"/>
       <c r="N867" s="31"/>
       <c r="O867" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q867" s="40"/>
       <c r="R867" s="40"/>
@@ -28661,7 +28666,7 @@
       <c r="M868" s="21"/>
       <c r="N868" s="31"/>
       <c r="O868" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q868" s="40"/>
       <c r="R868" s="40"/>
@@ -28682,7 +28687,7 @@
       <c r="M869" s="21"/>
       <c r="N869" s="31"/>
       <c r="O869" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q869" s="40"/>
       <c r="R869" s="40"/>
@@ -28703,7 +28708,7 @@
       <c r="M870" s="21"/>
       <c r="N870" s="31"/>
       <c r="O870" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q870" s="40"/>
       <c r="R870" s="40"/>
@@ -28724,7 +28729,7 @@
       <c r="M871" s="21"/>
       <c r="N871" s="31"/>
       <c r="O871" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q871" s="40"/>
       <c r="R871" s="40"/>
@@ -28745,7 +28750,7 @@
       <c r="M872" s="21"/>
       <c r="N872" s="31"/>
       <c r="O872" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q872" s="40"/>
       <c r="R872" s="40"/>
@@ -28766,7 +28771,7 @@
       <c r="M873" s="21"/>
       <c r="N873" s="31"/>
       <c r="O873" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q873" s="40"/>
       <c r="R873" s="40"/>
@@ -28787,7 +28792,7 @@
       <c r="M874" s="21"/>
       <c r="N874" s="31"/>
       <c r="O874" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q874" s="40"/>
       <c r="R874" s="40"/>
@@ -28808,7 +28813,7 @@
       <c r="M875" s="21"/>
       <c r="N875" s="31"/>
       <c r="O875" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q875" s="40"/>
       <c r="R875" s="40"/>
@@ -28829,7 +28834,7 @@
       <c r="M876" s="21"/>
       <c r="N876" s="31"/>
       <c r="O876" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q876" s="40"/>
       <c r="R876" s="40"/>
@@ -28850,7 +28855,7 @@
       <c r="M877" s="21"/>
       <c r="N877" s="31"/>
       <c r="O877" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q877" s="40"/>
       <c r="R877" s="40"/>
@@ -28871,7 +28876,7 @@
       <c r="M878" s="21"/>
       <c r="N878" s="31"/>
       <c r="O878" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q878" s="40"/>
       <c r="R878" s="40"/>
@@ -28892,7 +28897,7 @@
       <c r="M879" s="21"/>
       <c r="N879" s="31"/>
       <c r="O879" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q879" s="40"/>
       <c r="R879" s="40"/>
@@ -28913,7 +28918,7 @@
       <c r="M880" s="21"/>
       <c r="N880" s="31"/>
       <c r="O880" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q880" s="40"/>
       <c r="R880" s="40"/>
@@ -28934,7 +28939,7 @@
       <c r="M881" s="21"/>
       <c r="N881" s="31"/>
       <c r="O881" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q881" s="40"/>
       <c r="R881" s="40"/>
@@ -28955,7 +28960,7 @@
       <c r="M882" s="21"/>
       <c r="N882" s="31"/>
       <c r="O882" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q882" s="40"/>
       <c r="R882" s="40"/>
@@ -28976,7 +28981,7 @@
       <c r="M883" s="21"/>
       <c r="N883" s="31"/>
       <c r="O883" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q883" s="40"/>
       <c r="R883" s="40"/>
@@ -28997,7 +29002,7 @@
       <c r="M884" s="21"/>
       <c r="N884" s="31"/>
       <c r="O884" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q884" s="40"/>
       <c r="R884" s="40"/>
@@ -29018,7 +29023,7 @@
       <c r="M885" s="21"/>
       <c r="N885" s="31"/>
       <c r="O885" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q885" s="40"/>
       <c r="R885" s="40"/>
@@ -29039,7 +29044,7 @@
       <c r="M886" s="21"/>
       <c r="N886" s="31"/>
       <c r="O886" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q886" s="40"/>
       <c r="R886" s="40"/>
@@ -29060,7 +29065,7 @@
       <c r="M887" s="21"/>
       <c r="N887" s="31"/>
       <c r="O887" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q887" s="40"/>
       <c r="R887" s="40"/>
@@ -29081,7 +29086,7 @@
       <c r="M888" s="21"/>
       <c r="N888" s="31"/>
       <c r="O888" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q888" s="40"/>
       <c r="R888" s="40"/>
@@ -29102,7 +29107,7 @@
       <c r="M889" s="21"/>
       <c r="N889" s="31"/>
       <c r="O889" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q889" s="40"/>
       <c r="R889" s="40"/>
@@ -29123,7 +29128,7 @@
       <c r="M890" s="21"/>
       <c r="N890" s="31"/>
       <c r="O890" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q890" s="40"/>
       <c r="R890" s="40"/>
@@ -29144,7 +29149,7 @@
       <c r="M891" s="21"/>
       <c r="N891" s="31"/>
       <c r="O891" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q891" s="40"/>
       <c r="R891" s="40"/>
@@ -29165,7 +29170,7 @@
       <c r="M892" s="21"/>
       <c r="N892" s="31"/>
       <c r="O892" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q892" s="40"/>
       <c r="R892" s="40"/>
@@ -29186,7 +29191,7 @@
       <c r="M893" s="21"/>
       <c r="N893" s="31"/>
       <c r="O893" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q893" s="40"/>
       <c r="R893" s="40"/>
@@ -29207,7 +29212,7 @@
       <c r="M894" s="21"/>
       <c r="N894" s="31"/>
       <c r="O894" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q894" s="40"/>
       <c r="R894" s="40"/>
@@ -29228,7 +29233,7 @@
       <c r="M895" s="21"/>
       <c r="N895" s="31"/>
       <c r="O895" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q895" s="40"/>
       <c r="R895" s="40"/>
@@ -29249,7 +29254,7 @@
       <c r="M896" s="21"/>
       <c r="N896" s="31"/>
       <c r="O896" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q896" s="40"/>
       <c r="R896" s="40"/>
@@ -29270,7 +29275,7 @@
       <c r="M897" s="21"/>
       <c r="N897" s="31"/>
       <c r="O897" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q897" s="40"/>
       <c r="R897" s="40"/>
@@ -29291,7 +29296,7 @@
       <c r="M898" s="21"/>
       <c r="N898" s="31"/>
       <c r="O898" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q898" s="40"/>
       <c r="R898" s="40"/>
@@ -29312,7 +29317,7 @@
       <c r="M899" s="21"/>
       <c r="N899" s="31"/>
       <c r="O899" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q899" s="40"/>
       <c r="R899" s="40"/>
@@ -29333,7 +29338,7 @@
       <c r="M900" s="21"/>
       <c r="N900" s="31"/>
       <c r="O900" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q900" s="40"/>
       <c r="R900" s="40"/>
@@ -29354,7 +29359,7 @@
       <c r="M901" s="21"/>
       <c r="N901" s="31"/>
       <c r="O901" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q901" s="40"/>
       <c r="R901" s="40"/>
@@ -29375,7 +29380,7 @@
       <c r="M902" s="21"/>
       <c r="N902" s="31"/>
       <c r="O902" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q902" s="40"/>
       <c r="R902" s="40"/>
@@ -29396,7 +29401,7 @@
       <c r="M903" s="21"/>
       <c r="N903" s="31"/>
       <c r="O903" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q903" s="40"/>
       <c r="R903" s="40"/>
@@ -29417,7 +29422,7 @@
       <c r="M904" s="21"/>
       <c r="N904" s="31"/>
       <c r="O904" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q904" s="40"/>
       <c r="R904" s="40"/>
@@ -29438,7 +29443,7 @@
       <c r="M905" s="21"/>
       <c r="N905" s="31"/>
       <c r="O905" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q905" s="40"/>
       <c r="R905" s="40"/>
@@ -29459,7 +29464,7 @@
       <c r="M906" s="21"/>
       <c r="N906" s="31"/>
       <c r="O906" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q906" s="40"/>
       <c r="R906" s="40"/>
@@ -29480,7 +29485,7 @@
       <c r="M907" s="21"/>
       <c r="N907" s="31"/>
       <c r="O907" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q907" s="40"/>
       <c r="R907" s="40"/>
@@ -29501,7 +29506,7 @@
       <c r="M908" s="21"/>
       <c r="N908" s="31"/>
       <c r="O908" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q908" s="40"/>
       <c r="R908" s="40"/>
@@ -29522,7 +29527,7 @@
       <c r="M909" s="21"/>
       <c r="N909" s="31"/>
       <c r="O909" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q909" s="40"/>
       <c r="R909" s="40"/>
@@ -29543,7 +29548,7 @@
       <c r="M910" s="21"/>
       <c r="N910" s="31"/>
       <c r="O910" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q910" s="40"/>
       <c r="R910" s="40"/>
@@ -29564,7 +29569,7 @@
       <c r="M911" s="21"/>
       <c r="N911" s="31"/>
       <c r="O911" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q911" s="40"/>
       <c r="R911" s="40"/>
@@ -29585,7 +29590,7 @@
       <c r="M912" s="21"/>
       <c r="N912" s="31"/>
       <c r="O912" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q912" s="40"/>
       <c r="R912" s="40"/>
@@ -29606,7 +29611,7 @@
       <c r="M913" s="21"/>
       <c r="N913" s="31"/>
       <c r="O913" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q913" s="40"/>
       <c r="R913" s="40"/>
@@ -29627,7 +29632,7 @@
       <c r="M914" s="21"/>
       <c r="N914" s="31"/>
       <c r="O914" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q914" s="40"/>
       <c r="R914" s="40"/>
@@ -29648,7 +29653,7 @@
       <c r="M915" s="21"/>
       <c r="N915" s="31"/>
       <c r="O915" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q915" s="40"/>
       <c r="R915" s="40"/>
@@ -29669,7 +29674,7 @@
       <c r="M916" s="21"/>
       <c r="N916" s="31"/>
       <c r="O916" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q916" s="40"/>
       <c r="R916" s="40"/>
@@ -29690,7 +29695,7 @@
       <c r="M917" s="21"/>
       <c r="N917" s="31"/>
       <c r="O917" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q917" s="40"/>
       <c r="R917" s="40"/>
@@ -29711,7 +29716,7 @@
       <c r="M918" s="21"/>
       <c r="N918" s="31"/>
       <c r="O918" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q918" s="40"/>
       <c r="R918" s="40"/>
@@ -29732,7 +29737,7 @@
       <c r="M919" s="21"/>
       <c r="N919" s="31"/>
       <c r="O919" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q919" s="40"/>
       <c r="R919" s="40"/>
@@ -29753,7 +29758,7 @@
       <c r="M920" s="21"/>
       <c r="N920" s="31"/>
       <c r="O920" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q920" s="40"/>
       <c r="R920" s="40"/>
@@ -29774,7 +29779,7 @@
       <c r="M921" s="21"/>
       <c r="N921" s="31"/>
       <c r="O921" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q921" s="40"/>
       <c r="R921" s="40"/>
@@ -29795,7 +29800,7 @@
       <c r="M922" s="21"/>
       <c r="N922" s="31"/>
       <c r="O922" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q922" s="40"/>
       <c r="R922" s="40"/>
@@ -29816,7 +29821,7 @@
       <c r="M923" s="21"/>
       <c r="N923" s="31"/>
       <c r="O923" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q923" s="40"/>
       <c r="R923" s="40"/>
@@ -29837,7 +29842,7 @@
       <c r="M924" s="21"/>
       <c r="N924" s="31"/>
       <c r="O924" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q924" s="40"/>
       <c r="R924" s="40"/>
@@ -29858,7 +29863,7 @@
       <c r="M925" s="21"/>
       <c r="N925" s="31"/>
       <c r="O925" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q925" s="40"/>
       <c r="R925" s="40"/>
@@ -29879,7 +29884,7 @@
       <c r="M926" s="21"/>
       <c r="N926" s="31"/>
       <c r="O926" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q926" s="40"/>
       <c r="R926" s="40"/>
@@ -29900,7 +29905,7 @@
       <c r="M927" s="21"/>
       <c r="N927" s="31"/>
       <c r="O927" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q927" s="40"/>
       <c r="R927" s="40"/>
@@ -29921,7 +29926,7 @@
       <c r="M928" s="21"/>
       <c r="N928" s="31"/>
       <c r="O928" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q928" s="40"/>
       <c r="R928" s="40"/>
@@ -29942,7 +29947,7 @@
       <c r="M929" s="21"/>
       <c r="N929" s="31"/>
       <c r="O929" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q929" s="40"/>
       <c r="R929" s="40"/>
@@ -29963,7 +29968,7 @@
       <c r="M930" s="21"/>
       <c r="N930" s="31"/>
       <c r="O930" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q930" s="40"/>
       <c r="R930" s="40"/>
@@ -29984,7 +29989,7 @@
       <c r="M931" s="21"/>
       <c r="N931" s="31"/>
       <c r="O931" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q931" s="40"/>
       <c r="R931" s="40"/>
@@ -30005,7 +30010,7 @@
       <c r="M932" s="21"/>
       <c r="N932" s="31"/>
       <c r="O932" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q932" s="40"/>
       <c r="R932" s="40"/>
@@ -30026,7 +30031,7 @@
       <c r="M933" s="21"/>
       <c r="N933" s="31"/>
       <c r="O933" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q933" s="40"/>
       <c r="R933" s="40"/>
@@ -30047,7 +30052,7 @@
       <c r="M934" s="21"/>
       <c r="N934" s="31"/>
       <c r="O934" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q934" s="40"/>
       <c r="R934" s="40"/>
@@ -30068,7 +30073,7 @@
       <c r="M935" s="21"/>
       <c r="N935" s="31"/>
       <c r="O935" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q935" s="40"/>
       <c r="R935" s="40"/>
@@ -30089,7 +30094,7 @@
       <c r="M936" s="21"/>
       <c r="N936" s="31"/>
       <c r="O936" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q936" s="40"/>
       <c r="R936" s="40"/>
@@ -30110,7 +30115,7 @@
       <c r="M937" s="21"/>
       <c r="N937" s="31"/>
       <c r="O937" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q937" s="40"/>
       <c r="R937" s="40"/>
@@ -30131,7 +30136,7 @@
       <c r="M938" s="21"/>
       <c r="N938" s="31"/>
       <c r="O938" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q938" s="40"/>
       <c r="R938" s="40"/>
@@ -30152,7 +30157,7 @@
       <c r="M939" s="21"/>
       <c r="N939" s="31"/>
       <c r="O939" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q939" s="40"/>
       <c r="R939" s="40"/>
@@ -30173,7 +30178,7 @@
       <c r="M940" s="21"/>
       <c r="N940" s="31"/>
       <c r="O940" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q940" s="40"/>
       <c r="R940" s="40"/>
@@ -30194,7 +30199,7 @@
       <c r="M941" s="21"/>
       <c r="N941" s="31"/>
       <c r="O941" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q941" s="40"/>
       <c r="R941" s="40"/>
@@ -30215,7 +30220,7 @@
       <c r="M942" s="21"/>
       <c r="N942" s="31"/>
       <c r="O942" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q942" s="40"/>
       <c r="R942" s="40"/>
@@ -30236,7 +30241,7 @@
       <c r="M943" s="21"/>
       <c r="N943" s="31"/>
       <c r="O943" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q943" s="40"/>
       <c r="R943" s="40"/>
@@ -30257,7 +30262,7 @@
       <c r="M944" s="21"/>
       <c r="N944" s="31"/>
       <c r="O944" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q944" s="40"/>
       <c r="R944" s="40"/>
@@ -30278,7 +30283,7 @@
       <c r="M945" s="21"/>
       <c r="N945" s="31"/>
       <c r="O945" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q945" s="40"/>
       <c r="R945" s="40"/>
@@ -30299,7 +30304,7 @@
       <c r="M946" s="21"/>
       <c r="N946" s="31"/>
       <c r="O946" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q946" s="40"/>
       <c r="R946" s="40"/>
@@ -30320,7 +30325,7 @@
       <c r="M947" s="21"/>
       <c r="N947" s="31"/>
       <c r="O947" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q947" s="40"/>
       <c r="R947" s="40"/>
@@ -30341,7 +30346,7 @@
       <c r="M948" s="21"/>
       <c r="N948" s="31"/>
       <c r="O948" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q948" s="40"/>
       <c r="R948" s="40"/>
@@ -30362,7 +30367,7 @@
       <c r="M949" s="21"/>
       <c r="N949" s="31"/>
       <c r="O949" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q949" s="40"/>
       <c r="R949" s="40"/>
@@ -30383,7 +30388,7 @@
       <c r="M950" s="21"/>
       <c r="N950" s="31"/>
       <c r="O950" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q950" s="40"/>
       <c r="R950" s="40"/>
@@ -30404,7 +30409,7 @@
       <c r="M951" s="21"/>
       <c r="N951" s="31"/>
       <c r="O951" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q951" s="40"/>
       <c r="R951" s="40"/>
@@ -30425,7 +30430,7 @@
       <c r="M952" s="21"/>
       <c r="N952" s="31"/>
       <c r="O952" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q952" s="40"/>
       <c r="R952" s="40"/>
@@ -30446,7 +30451,7 @@
       <c r="M953" s="21"/>
       <c r="N953" s="31"/>
       <c r="O953" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q953" s="40"/>
       <c r="R953" s="40"/>
@@ -30467,7 +30472,7 @@
       <c r="M954" s="21"/>
       <c r="N954" s="31"/>
       <c r="O954" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q954" s="40"/>
       <c r="R954" s="40"/>
@@ -30488,7 +30493,7 @@
       <c r="M955" s="21"/>
       <c r="N955" s="31"/>
       <c r="O955" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q955" s="40"/>
       <c r="R955" s="40"/>
@@ -30509,7 +30514,7 @@
       <c r="M956" s="21"/>
       <c r="N956" s="31"/>
       <c r="O956" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q956" s="40"/>
       <c r="R956" s="40"/>
@@ -30530,7 +30535,7 @@
       <c r="M957" s="21"/>
       <c r="N957" s="31"/>
       <c r="O957" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q957" s="40"/>
       <c r="R957" s="40"/>
@@ -30551,7 +30556,7 @@
       <c r="M958" s="21"/>
       <c r="N958" s="31"/>
       <c r="O958" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q958" s="40"/>
       <c r="R958" s="40"/>
@@ -30572,7 +30577,7 @@
       <c r="M959" s="21"/>
       <c r="N959" s="31"/>
       <c r="O959" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q959" s="40"/>
       <c r="R959" s="40"/>
@@ -30593,7 +30598,7 @@
       <c r="M960" s="21"/>
       <c r="N960" s="31"/>
       <c r="O960" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q960" s="40"/>
       <c r="R960" s="40"/>
@@ -30614,7 +30619,7 @@
       <c r="M961" s="21"/>
       <c r="N961" s="31"/>
       <c r="O961" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q961" s="40"/>
       <c r="R961" s="40"/>
@@ -30635,7 +30640,7 @@
       <c r="M962" s="21"/>
       <c r="N962" s="31"/>
       <c r="O962" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q962" s="40"/>
       <c r="R962" s="40"/>
@@ -30656,7 +30661,7 @@
       <c r="M963" s="21"/>
       <c r="N963" s="31"/>
       <c r="O963" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q963" s="40"/>
       <c r="R963" s="40"/>
@@ -30677,7 +30682,7 @@
       <c r="M964" s="21"/>
       <c r="N964" s="31"/>
       <c r="O964" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q964" s="40"/>
       <c r="R964" s="40"/>
@@ -30698,7 +30703,7 @@
       <c r="M965" s="21"/>
       <c r="N965" s="31"/>
       <c r="O965" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q965" s="40"/>
       <c r="R965" s="40"/>
@@ -30719,7 +30724,7 @@
       <c r="M966" s="21"/>
       <c r="N966" s="31"/>
       <c r="O966" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q966" s="40"/>
       <c r="R966" s="40"/>
@@ -30740,7 +30745,7 @@
       <c r="M967" s="21"/>
       <c r="N967" s="31"/>
       <c r="O967" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q967" s="40"/>
       <c r="R967" s="40"/>
@@ -30761,7 +30766,7 @@
       <c r="M968" s="21"/>
       <c r="N968" s="31"/>
       <c r="O968" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q968" s="40"/>
       <c r="R968" s="40"/>
@@ -30782,7 +30787,7 @@
       <c r="M969" s="21"/>
       <c r="N969" s="31"/>
       <c r="O969" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q969" s="40"/>
       <c r="R969" s="40"/>
@@ -30803,7 +30808,7 @@
       <c r="M970" s="21"/>
       <c r="N970" s="31"/>
       <c r="O970" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q970" s="40"/>
       <c r="R970" s="40"/>
@@ -30824,7 +30829,7 @@
       <c r="M971" s="21"/>
       <c r="N971" s="31"/>
       <c r="O971" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q971" s="40"/>
       <c r="R971" s="40"/>
@@ -30845,7 +30850,7 @@
       <c r="M972" s="21"/>
       <c r="N972" s="31"/>
       <c r="O972" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q972" s="40"/>
       <c r="R972" s="40"/>
@@ -30866,7 +30871,7 @@
       <c r="M973" s="21"/>
       <c r="N973" s="31"/>
       <c r="O973" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q973" s="40"/>
       <c r="R973" s="40"/>
@@ -30887,7 +30892,7 @@
       <c r="M974" s="21"/>
       <c r="N974" s="31"/>
       <c r="O974" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q974" s="40"/>
       <c r="R974" s="40"/>
@@ -30908,7 +30913,7 @@
       <c r="M975" s="21"/>
       <c r="N975" s="31"/>
       <c r="O975" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q975" s="40"/>
       <c r="R975" s="40"/>
@@ -30929,7 +30934,7 @@
       <c r="M976" s="21"/>
       <c r="N976" s="31"/>
       <c r="O976" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q976" s="40"/>
       <c r="R976" s="40"/>
@@ -30950,7 +30955,7 @@
       <c r="M977" s="21"/>
       <c r="N977" s="31"/>
       <c r="O977" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q977" s="40"/>
       <c r="R977" s="40"/>
@@ -30971,7 +30976,7 @@
       <c r="M978" s="21"/>
       <c r="N978" s="31"/>
       <c r="O978" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q978" s="40"/>
       <c r="R978" s="40"/>
@@ -30992,7 +30997,7 @@
       <c r="M979" s="21"/>
       <c r="N979" s="31"/>
       <c r="O979" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q979" s="40"/>
       <c r="R979" s="40"/>
@@ -31013,7 +31018,7 @@
       <c r="M980" s="21"/>
       <c r="N980" s="31"/>
       <c r="O980" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q980" s="40"/>
       <c r="R980" s="40"/>
@@ -31034,7 +31039,7 @@
       <c r="M981" s="21"/>
       <c r="N981" s="31"/>
       <c r="O981" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q981" s="40"/>
       <c r="R981" s="40"/>
@@ -31055,7 +31060,7 @@
       <c r="M982" s="21"/>
       <c r="N982" s="31"/>
       <c r="O982" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q982" s="40"/>
       <c r="R982" s="40"/>
@@ -31076,7 +31081,7 @@
       <c r="M983" s="21"/>
       <c r="N983" s="31"/>
       <c r="O983" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q983" s="40"/>
       <c r="R983" s="40"/>
@@ -31097,7 +31102,7 @@
       <c r="M984" s="21"/>
       <c r="N984" s="31"/>
       <c r="O984" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q984" s="40"/>
       <c r="R984" s="40"/>
@@ -31118,7 +31123,7 @@
       <c r="M985" s="21"/>
       <c r="N985" s="31"/>
       <c r="O985" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q985" s="40"/>
       <c r="R985" s="40"/>
@@ -31139,7 +31144,7 @@
       <c r="M986" s="21"/>
       <c r="N986" s="31"/>
       <c r="O986" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q986" s="40"/>
       <c r="R986" s="40"/>
@@ -31160,7 +31165,7 @@
       <c r="M987" s="21"/>
       <c r="N987" s="31"/>
       <c r="O987" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q987" s="40"/>
       <c r="R987" s="40"/>
@@ -31181,7 +31186,7 @@
       <c r="M988" s="21"/>
       <c r="N988" s="31"/>
       <c r="O988" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q988" s="40"/>
       <c r="R988" s="40"/>
@@ -31202,7 +31207,7 @@
       <c r="M989" s="21"/>
       <c r="N989" s="31"/>
       <c r="O989" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q989" s="40"/>
       <c r="R989" s="40"/>
@@ -31223,7 +31228,7 @@
       <c r="M990" s="21"/>
       <c r="N990" s="31"/>
       <c r="O990" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q990" s="40"/>
       <c r="R990" s="40"/>
@@ -31244,7 +31249,7 @@
       <c r="M991" s="21"/>
       <c r="N991" s="31"/>
       <c r="O991" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q991" s="40"/>
       <c r="R991" s="40"/>
@@ -31265,7 +31270,7 @@
       <c r="M992" s="21"/>
       <c r="N992" s="31"/>
       <c r="O992" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q992" s="40"/>
       <c r="R992" s="40"/>
@@ -31286,7 +31291,7 @@
       <c r="M993" s="21"/>
       <c r="N993" s="31"/>
       <c r="O993" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q993" s="40"/>
       <c r="R993" s="40"/>
@@ -31307,7 +31312,7 @@
       <c r="M994" s="21"/>
       <c r="N994" s="31"/>
       <c r="O994" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q994" s="40"/>
       <c r="R994" s="40"/>
@@ -31328,7 +31333,7 @@
       <c r="M995" s="21"/>
       <c r="N995" s="31"/>
       <c r="O995" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q995" s="40"/>
       <c r="R995" s="40"/>
@@ -31349,7 +31354,7 @@
       <c r="M996" s="21"/>
       <c r="N996" s="31"/>
       <c r="O996" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q996" s="40"/>
       <c r="R996" s="40"/>
@@ -31370,7 +31375,7 @@
       <c r="M997" s="21"/>
       <c r="N997" s="31"/>
       <c r="O997" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q997" s="40"/>
       <c r="R997" s="40"/>
@@ -31391,7 +31396,7 @@
       <c r="M998" s="21"/>
       <c r="N998" s="31"/>
       <c r="O998" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q998" s="40"/>
       <c r="R998" s="40"/>
@@ -31412,7 +31417,7 @@
       <c r="M999" s="21"/>
       <c r="N999" s="31"/>
       <c r="O999" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q999" s="40"/>
       <c r="R999" s="40"/>
@@ -31433,7 +31438,7 @@
       <c r="M1000" s="44"/>
       <c r="N1000" s="45"/>
       <c r="O1000" s="46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q1000" s="47"/>
       <c r="R1000" s="47"/>
@@ -31518,7 +31523,7 @@
         <v>count Part</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">

--- a/meta/procedure_GSheetsOnly.xlsx
+++ b/meta/procedure_GSheetsOnly.xlsx
@@ -259,13 +259,13 @@
     <t>Start by figuring out how many dye colours we brought with us today. Using a worksheet, students calculate their "dye-versity index".</t>
   </si>
   <si>
-    <t xml:space="preserve">Using a worksheet, students calculate their "dye-versity index". This number represents the total number of colours a student has on them, and therefore the number of dye processes that had to be invented. </t>
+    <t xml:space="preserve">The "dye-versity index" represents the total number of colours a student has on them, and therefore the number of dye processes that had to be invented. </t>
   </si>
   <si>
     <t>Share Out</t>
   </si>
   <si>
-    <t>Students share their "dye-versity index" and reflect on whether colour helps express their personality or mood. They will also begin to think about natural vs dyed colours.</t>
+    <t>Students share their "dye-versity index" and reflect on whether colour helps express their personality or mood.</t>
   </si>
   <si>
     <t>Chunks: 4
@@ -370,7 +370,8 @@
     <t>Activity instructions</t>
   </si>
   <si>
-    <t xml:space="preserve">To help students think about initial costs of each dye technology, they are given a set of Cost Cards {item2} with the steps of each process. </t>
+    <t xml:space="preserve">{item2}  
+To help students think about initial costs of each dye technology, they are given a set of Cost Cards with the steps of each process. </t>
   </si>
   <si>
     <t>Each group of students will receive a set of 18 Cost Cards that contain the steps in each of the three dyeing technologies (six steps per process). The presentation will break the activity into substages and guide the students through an analysis of the processes.
@@ -412,7 +413,7 @@
     <t>Introducing Price Curves</t>
   </si>
   <si>
-    <t>The presentation guides the introduction of producing items at various scales and discusses how the price per unit changes accordingly.</t>
+    <t>The presentation introduces the idea of producing items at various scales and discusses how the price per unit changes accordingly.</t>
   </si>
   <si>
     <t xml:space="preserve">Students use their worksheets to follow the discussion of Price Curves and answer questions throughout the presentation. </t>
@@ -424,10 +425,10 @@
     <t>The example of fishing for Murex snails illustrates how the availability of resources affects (and limits) the scale of production.</t>
   </si>
   <si>
-    <t>Watch True Blues: Textiles Water Pollution Problem {vid3} to learn about some of the environmental impacts of synthetic dyes made from fossil fuels.</t>
+    <t>{vid3} Learn about some of the environmental impacts of synthetic dyes made from fossil fuels.</t>
   </si>
   <si>
-    <t>Throughout the presentation, synthetic dyes produced from fossil fuels become an increasingly attractive dye technology. Despite their range of colours and low costs, dyes produced from fossil fuels also cause a lot of problems. In this video students learn about the many sustainability issues tied to the dye and fashion industries (particularly with fossil-fuel-derived synthetic dyes). This prepares students to reflect on and analyse the consequences of dye technologies as they perform a cost-benefit analysis of the available dye technologies to make a recommendation for *Galactic Tees*.</t>
+    <t>Throughout the presentation, synthetic dyes produced from fossil fuels are shown to be a competitive and attractive dye technology. Despite their range of colours and low costs, dyes produced from fossil fuels also cause a lot of problems. In this video students learn about the many sustainability issues tied to the dye and fashion industries (particularly with fossil-fuel-derived synthetic dyes). This prepares students to reflect on and analyse the consequences of dye technologies as they perform a cost-benefit analysis of the available dye technologies to make a recommendation for *Galactic Tees*.</t>
   </si>
   <si>
     <t>Interpretation and Reflection</t>
